--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="12645" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="mailinator" sheetId="2" r:id="rId2"/>
+    <sheet name="mailinator_version" sheetId="5" r:id="rId3"/>
+    <sheet name="temporary-mail" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="693">
   <si>
     <t>target</t>
   </si>
@@ -2055,6 +2057,87 @@
   </si>
   <si>
     <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>nexial.browser</t>
+  </si>
+  <si>
+    <t>chrome.headless</t>
+  </si>
+  <si>
+    <t>site.url</t>
+  </si>
+  <si>
+    <t>https://www.mailinator.com/</t>
+  </si>
+  <si>
+    <t>loc.nav-items</t>
+  </si>
+  <si>
+    <t>css=.wrapper-nav-items a</t>
+  </si>
+  <si>
+    <t>loc.email-link</t>
+  </si>
+  <si>
+    <t>css=.wrapper-nav-items a[aria-label='Email']</t>
+  </si>
+  <si>
+    <t>expected.email-link</t>
+  </si>
+  <si>
+    <t>https://www.mailinator.com/v4/public/inboxes.jsp</t>
+  </si>
+  <si>
+    <t>Go to Site</t>
+  </si>
+  <si>
+    <t>${site.url}</t>
+  </si>
+  <si>
+    <t>${loc.nav-items}</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>${loc.email-link}</t>
+  </si>
+  <si>
+    <t>actual.email-link</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>Assert Email Link</t>
+  </si>
+  <si>
+    <t>${expected.email-link}</t>
+  </si>
+  <si>
+    <t>${actual.email-link}</t>
+  </si>
+  <si>
+    <t>${webmail2.inbox}@temporary-mail.net</t>
+  </si>
+  <si>
+    <t>Temporary-mail</t>
+  </si>
+  <si>
+    <t>webmail2</t>
+  </si>
+  <si>
+    <t>delete just 5 emails</t>
+  </si>
+  <si>
+    <t>delete.max</t>
+  </si>
+  <si>
+    <t>[LIST(${mails}) =&gt; size min(5)]</t>
+  </si>
+  <si>
+    <t>${delete.max}</t>
   </si>
 </sst>
 </file>
@@ -2063,11 +2146,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2110,6 +2193,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -2123,43 +2220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2174,7 +2235,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2188,6 +2257,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2198,17 +2313,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2227,30 +2348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -2258,8 +2355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2292,49 +2390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,7 +2414,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,13 +2492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,7 +2522,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,85 +2564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,6 +2694,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2611,22 +2751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2648,195 +2783,161 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2960,6 +3061,18 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2968,8 +3081,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2997,7 +3114,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3006,7 +3123,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3016,45 +3133,46 @@
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
-    <cellStyle name="Note" xfId="11" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="13" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="14" builtinId="35"/>
-    <cellStyle name="Title" xfId="15" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="16" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="17" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="18" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="19" builtinId="19"/>
-    <cellStyle name="Input" xfId="20" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="21" builtinId="40"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Output" xfId="23" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="24" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="25" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="26" builtinId="24"/>
-    <cellStyle name="Total" xfId="27" builtinId="25"/>
-    <cellStyle name="Bad" xfId="28" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="30" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="31" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="32" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="33" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="34" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="35" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="36" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="37" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="38" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="39" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="40" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="41" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="47" builtinId="52"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -5588,7 +5706,7 @@
   <sheetPr/>
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
@@ -5633,14 +5751,14 @@
       <c r="I1" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>602</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -5656,12 +5774,12 @@
       <c r="I2" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -5673,7 +5791,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -5708,10 +5826,10 @@
       <c r="I4" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="23" t="s">
         <v>614</v>
       </c>
@@ -5747,7 +5865,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="46"/>
+      <c r="J5" s="50"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -5772,7 +5890,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="46"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -5799,7 +5917,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="46"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -5824,7 +5942,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="46"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -5847,7 +5965,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="46"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -5874,7 +5992,7 @@
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="46"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
@@ -5901,7 +6019,7 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="46"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
@@ -5928,7 +6046,7 @@
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="46"/>
+      <c r="J12" s="50"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
@@ -5953,7 +6071,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="46"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -5978,7 +6096,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="46"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -6011,7 +6129,7 @@
         <v>644</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="46"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -6034,7 +6152,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="46"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -6061,7 +6179,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="46"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -6086,7 +6204,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="46"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -6101,7 +6219,7 @@
       <c r="C19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="38" t="s">
         <v>378</v>
       </c>
       <c r="E19" s="28" t="s">
@@ -6113,7 +6231,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="46"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -6126,7 +6244,7 @@
       <c r="C20" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="39" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -6138,7 +6256,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="46"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -6151,7 +6269,7 @@
       <c r="C21" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="39" t="s">
         <v>650</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -6165,7 +6283,7 @@
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="46"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -6180,7 +6298,7 @@
       <c r="C22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="39" t="s">
         <v>281</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -6192,7 +6310,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="46"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -6205,7 +6323,7 @@
       <c r="C23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="39" t="s">
         <v>281</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -6217,7 +6335,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="46"/>
+      <c r="J23" s="50"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
@@ -6230,7 +6348,7 @@
       <c r="C24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="39" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -6242,7 +6360,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="46"/>
+      <c r="J24" s="50"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -6255,7 +6373,7 @@
       <c r="C25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="39" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="31" t="s">
@@ -6267,7 +6385,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="46"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -6280,7 +6398,7 @@
       <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>281</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -6292,7 +6410,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="46"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -6305,7 +6423,7 @@
       <c r="C27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="39" t="s">
         <v>281</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -6317,7 +6435,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="46"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -6326,13 +6444,13 @@
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="40" t="s">
         <v>664</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="39" t="s">
         <v>665</v>
       </c>
       <c r="E28" s="31" t="s">
@@ -6344,7 +6462,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="46"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -6357,7 +6475,7 @@
       <c r="C29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="42" t="s">
         <v>256</v>
       </c>
       <c r="E29" s="34" t="s">
@@ -6369,7 +6487,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="46"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -6386,7 +6504,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="46"/>
+      <c r="J30" s="50"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -6403,7 +6521,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="46"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -6420,7 +6538,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="46"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -6437,7 +6555,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="46"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -6454,7 +6572,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="46"/>
+      <c r="J34" s="50"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -6471,7 +6589,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="46"/>
+      <c r="J35" s="50"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -6488,7 +6606,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="46"/>
+      <c r="J36" s="50"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -6505,7 +6623,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="46"/>
+      <c r="J37" s="50"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -6522,7 +6640,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="46"/>
+      <c r="J38" s="50"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -6539,7 +6657,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="46"/>
+      <c r="J39" s="50"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -6556,7 +6674,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="46"/>
+      <c r="J40" s="50"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -6573,7 +6691,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="46"/>
+      <c r="J41" s="50"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -6590,7 +6708,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="46"/>
+      <c r="J42" s="50"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -6607,7 +6725,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="46"/>
+      <c r="J43" s="50"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -6624,7 +6742,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="46"/>
+      <c r="J44" s="50"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -6641,7 +6759,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="46"/>
+      <c r="J45" s="50"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -6658,7 +6776,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="46"/>
+      <c r="J46" s="50"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -6675,7 +6793,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="46"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -6692,7 +6810,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="46"/>
+      <c r="J48" s="50"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -6709,7 +6827,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="46"/>
+      <c r="J49" s="50"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -6726,7 +6844,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="46"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -6743,7 +6861,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="46"/>
+      <c r="J51" s="50"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -6760,7 +6878,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="46"/>
+      <c r="J52" s="50"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -6777,7 +6895,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="46"/>
+      <c r="J53" s="50"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -6794,7 +6912,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="46"/>
+      <c r="J54" s="50"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -6811,7 +6929,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="46"/>
+      <c r="J55" s="50"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -6828,7 +6946,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="46"/>
+      <c r="J56" s="50"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -6845,7 +6963,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="46"/>
+      <c r="J57" s="50"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -6862,7 +6980,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="46"/>
+      <c r="J58" s="50"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -6879,7 +6997,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="46"/>
+      <c r="J59" s="50"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -6896,7 +7014,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="46"/>
+      <c r="J60" s="50"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -6913,7 +7031,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="46"/>
+      <c r="J61" s="50"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -6930,7 +7048,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="46"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -6947,7 +7065,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="46"/>
+      <c r="J63" s="50"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -6964,7 +7082,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="46"/>
+      <c r="J64" s="50"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -6981,7 +7099,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="46"/>
+      <c r="J65" s="50"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -6998,7 +7116,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="46"/>
+      <c r="J66" s="50"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -7015,7 +7133,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="46"/>
+      <c r="J67" s="50"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -7032,7 +7150,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="46"/>
+      <c r="J68" s="50"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -7049,7 +7167,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="46"/>
+      <c r="J69" s="50"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -7066,7 +7184,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="46"/>
+      <c r="J70" s="50"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -7083,7 +7201,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="46"/>
+      <c r="J71" s="50"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -7100,7 +7218,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="46"/>
+      <c r="J72" s="50"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -7117,7 +7235,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="46"/>
+      <c r="J73" s="50"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -7134,7 +7252,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="46"/>
+      <c r="J74" s="50"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -7151,7 +7269,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="46"/>
+      <c r="J75" s="50"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -7168,7 +7286,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="46"/>
+      <c r="J76" s="50"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -7185,7 +7303,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="46"/>
+      <c r="J77" s="50"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -7202,7 +7320,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="46"/>
+      <c r="J78" s="50"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -7219,7 +7337,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="46"/>
+      <c r="J79" s="50"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -7236,7 +7354,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="46"/>
+      <c r="J80" s="50"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -7253,7 +7371,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="46"/>
+      <c r="J81" s="50"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -7270,7 +7388,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="46"/>
+      <c r="J82" s="50"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -7287,7 +7405,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="46"/>
+      <c r="J83" s="50"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -7304,7 +7422,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="46"/>
+      <c r="J84" s="50"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -7321,7 +7439,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="46"/>
+      <c r="J85" s="50"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -7338,7 +7456,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="46"/>
+      <c r="J86" s="50"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -7355,7 +7473,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="46"/>
+      <c r="J87" s="50"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -7372,7 +7490,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="46"/>
+      <c r="J88" s="50"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -7389,7 +7507,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="46"/>
+      <c r="J89" s="50"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -7406,7 +7524,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="46"/>
+      <c r="J90" s="50"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -7423,7 +7541,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="46"/>
+      <c r="J91" s="50"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -7440,7 +7558,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="46"/>
+      <c r="J92" s="50"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -7457,7 +7575,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="46"/>
+      <c r="J93" s="50"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -7474,7 +7592,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="46"/>
+      <c r="J94" s="50"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -7491,7 +7609,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="46"/>
+      <c r="J95" s="50"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -7508,7 +7626,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="46"/>
+      <c r="J96" s="50"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -7525,7 +7643,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="46"/>
+      <c r="J97" s="50"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -7542,7 +7660,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="46"/>
+      <c r="J98" s="50"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -7559,7 +7677,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="46"/>
+      <c r="J99" s="50"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -7576,7 +7694,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="46"/>
+      <c r="J100" s="50"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -7593,7 +7711,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="46"/>
+      <c r="J101" s="50"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -7610,7 +7728,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="46"/>
+      <c r="J102" s="50"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -7627,7 +7745,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="46"/>
+      <c r="J103" s="50"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -7644,7 +7762,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="46"/>
+      <c r="J104" s="50"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -7661,7 +7779,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="46"/>
+      <c r="J105" s="50"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -7678,7 +7796,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="46"/>
+      <c r="J106" s="50"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -7695,7 +7813,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="46"/>
+      <c r="J107" s="50"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -7712,7 +7830,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="46"/>
+      <c r="J108" s="50"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -7729,7 +7847,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="46"/>
+      <c r="J109" s="50"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -7746,7 +7864,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="46"/>
+      <c r="J110" s="50"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -7763,7 +7881,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="46"/>
+      <c r="J111" s="50"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -7780,7 +7898,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="46"/>
+      <c r="J112" s="50"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -7797,7 +7915,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="46"/>
+      <c r="J113" s="50"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -7814,7 +7932,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="46"/>
+      <c r="J114" s="50"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -7831,7 +7949,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="46"/>
+      <c r="J115" s="50"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -7848,7 +7966,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="46"/>
+      <c r="J116" s="50"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -7865,7 +7983,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="46"/>
+      <c r="J117" s="50"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -7882,7 +8000,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="46"/>
+      <c r="J118" s="50"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -7899,7 +8017,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="46"/>
+      <c r="J119" s="50"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -7916,7 +8034,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="46"/>
+      <c r="J120" s="50"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -7933,7 +8051,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="46"/>
+      <c r="J121" s="50"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -7950,7 +8068,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="46"/>
+      <c r="J122" s="50"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -7967,7 +8085,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="46"/>
+      <c r="J123" s="50"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -7984,7 +8102,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="46"/>
+      <c r="J124" s="50"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -8001,7 +8119,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="46"/>
+      <c r="J125" s="50"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -8018,7 +8136,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="46"/>
+      <c r="J126" s="50"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -8035,7 +8153,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="46"/>
+      <c r="J127" s="50"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -8052,7 +8170,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="46"/>
+      <c r="J128" s="50"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -8069,7 +8187,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="46"/>
+      <c r="J129" s="50"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -8086,7 +8204,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="46"/>
+      <c r="J130" s="50"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -8103,7 +8221,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="46"/>
+      <c r="J131" s="50"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -8120,7 +8238,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="46"/>
+      <c r="J132" s="50"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -8137,7 +8255,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="46"/>
+      <c r="J133" s="50"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -8154,7 +8272,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="46"/>
+      <c r="J134" s="50"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -8171,7 +8289,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="46"/>
+      <c r="J135" s="50"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -8188,7 +8306,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="46"/>
+      <c r="J136" s="50"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -8205,7 +8323,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="46"/>
+      <c r="J137" s="50"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -8222,7 +8340,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="46"/>
+      <c r="J138" s="50"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -8239,7 +8357,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="46"/>
+      <c r="J139" s="50"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -8256,7 +8374,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="46"/>
+      <c r="J140" s="50"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -8273,7 +8391,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="46"/>
+      <c r="J141" s="50"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -8290,7 +8408,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="46"/>
+      <c r="J142" s="50"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -8307,7 +8425,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="46"/>
+      <c r="J143" s="50"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -8324,7 +8442,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="46"/>
+      <c r="J144" s="50"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -8341,7 +8459,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="46"/>
+      <c r="J145" s="50"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -8358,7 +8476,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="46"/>
+      <c r="J146" s="50"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -8375,7 +8493,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="46"/>
+      <c r="J147" s="50"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -8392,7 +8510,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="46"/>
+      <c r="J148" s="50"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -8409,7 +8527,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="46"/>
+      <c r="J149" s="50"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -8426,7 +8544,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="46"/>
+      <c r="J150" s="50"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -8443,7 +8561,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="46"/>
+      <c r="J151" s="50"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -8460,7 +8578,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="46"/>
+      <c r="J152" s="50"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -8477,7 +8595,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="46"/>
+      <c r="J153" s="50"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -8494,7 +8612,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="46"/>
+      <c r="J154" s="50"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -8511,7 +8629,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="46"/>
+      <c r="J155" s="50"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -8528,7 +8646,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="46"/>
+      <c r="J156" s="50"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -8545,7 +8663,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="46"/>
+      <c r="J157" s="50"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -8562,7 +8680,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="46"/>
+      <c r="J158" s="50"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -8579,7 +8697,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="46"/>
+      <c r="J159" s="50"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -8596,7 +8714,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="46"/>
+      <c r="J160" s="50"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -8613,7 +8731,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="46"/>
+      <c r="J161" s="50"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -8630,7 +8748,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="46"/>
+      <c r="J162" s="50"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -8647,7 +8765,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="46"/>
+      <c r="J163" s="50"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -8664,7 +8782,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="46"/>
+      <c r="J164" s="50"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -8681,7 +8799,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="46"/>
+      <c r="J165" s="50"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -8698,7 +8816,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="46"/>
+      <c r="J166" s="50"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -8715,7 +8833,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="46"/>
+      <c r="J167" s="50"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -8732,7 +8850,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="46"/>
+      <c r="J168" s="50"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -8749,7 +8867,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="46"/>
+      <c r="J169" s="50"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -8766,7 +8884,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="46"/>
+      <c r="J170" s="50"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -8783,7 +8901,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="46"/>
+      <c r="J171" s="50"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -8800,7 +8918,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="46"/>
+      <c r="J172" s="50"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -8817,7 +8935,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="46"/>
+      <c r="J173" s="50"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -8834,7 +8952,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="46"/>
+      <c r="J174" s="50"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -8851,7 +8969,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="46"/>
+      <c r="J175" s="50"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -8868,7 +8986,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="46"/>
+      <c r="J176" s="50"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -8885,7 +9003,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="46"/>
+      <c r="J177" s="50"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -8902,7 +9020,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="46"/>
+      <c r="J178" s="50"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -8919,7 +9037,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
-      <c r="J179" s="46"/>
+      <c r="J179" s="50"/>
       <c r="K179" s="21"/>
       <c r="L179" s="22"/>
       <c r="M179" s="20"/>
@@ -8936,7 +9054,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
-      <c r="J180" s="46"/>
+      <c r="J180" s="50"/>
       <c r="K180" s="21"/>
       <c r="L180" s="22"/>
       <c r="M180" s="20"/>
@@ -8953,7 +9071,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
-      <c r="J181" s="46"/>
+      <c r="J181" s="50"/>
       <c r="K181" s="21"/>
       <c r="L181" s="22"/>
       <c r="M181" s="20"/>
@@ -8970,7 +9088,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
-      <c r="J182" s="46"/>
+      <c r="J182" s="50"/>
       <c r="K182" s="21"/>
       <c r="L182" s="22"/>
       <c r="M182" s="20"/>
@@ -8987,7 +9105,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
-      <c r="J183" s="46"/>
+      <c r="J183" s="50"/>
       <c r="K183" s="21"/>
       <c r="L183" s="22"/>
       <c r="M183" s="20"/>
@@ -9004,7 +9122,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
-      <c r="J184" s="46"/>
+      <c r="J184" s="50"/>
       <c r="K184" s="21"/>
       <c r="L184" s="22"/>
       <c r="M184" s="20"/>
@@ -9021,7 +9139,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
-      <c r="J185" s="46"/>
+      <c r="J185" s="50"/>
       <c r="K185" s="21"/>
       <c r="L185" s="22"/>
       <c r="M185" s="20"/>
@@ -9038,7 +9156,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
-      <c r="J186" s="46"/>
+      <c r="J186" s="50"/>
       <c r="K186" s="21"/>
       <c r="L186" s="22"/>
       <c r="M186" s="20"/>
@@ -9055,7 +9173,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
-      <c r="J187" s="46"/>
+      <c r="J187" s="50"/>
       <c r="K187" s="21"/>
       <c r="L187" s="22"/>
       <c r="M187" s="20"/>
@@ -9072,7 +9190,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
-      <c r="J188" s="46"/>
+      <c r="J188" s="50"/>
       <c r="K188" s="21"/>
       <c r="L188" s="22"/>
       <c r="M188" s="20"/>
@@ -9089,7 +9207,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
-      <c r="J189" s="46"/>
+      <c r="J189" s="50"/>
       <c r="K189" s="21"/>
       <c r="L189" s="22"/>
       <c r="M189" s="20"/>
@@ -9106,7 +9224,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
-      <c r="J190" s="46"/>
+      <c r="J190" s="50"/>
       <c r="K190" s="21"/>
       <c r="L190" s="22"/>
       <c r="M190" s="20"/>
@@ -9123,7 +9241,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
-      <c r="J191" s="46"/>
+      <c r="J191" s="50"/>
       <c r="K191" s="21"/>
       <c r="L191" s="22"/>
       <c r="M191" s="20"/>
@@ -9140,7 +9258,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
-      <c r="J192" s="46"/>
+      <c r="J192" s="50"/>
       <c r="K192" s="21"/>
       <c r="L192" s="22"/>
       <c r="M192" s="20"/>
@@ -9157,7 +9275,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
-      <c r="J193" s="46"/>
+      <c r="J193" s="50"/>
       <c r="K193" s="21"/>
       <c r="L193" s="22"/>
       <c r="M193" s="20"/>
@@ -9174,7 +9292,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
-      <c r="J194" s="46"/>
+      <c r="J194" s="50"/>
       <c r="K194" s="21"/>
       <c r="L194" s="22"/>
       <c r="M194" s="20"/>
@@ -9191,7 +9309,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
-      <c r="J195" s="46"/>
+      <c r="J195" s="50"/>
       <c r="K195" s="21"/>
       <c r="L195" s="22"/>
       <c r="M195" s="20"/>
@@ -9208,7 +9326,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
-      <c r="J196" s="46"/>
+      <c r="J196" s="50"/>
       <c r="K196" s="21"/>
       <c r="L196" s="22"/>
       <c r="M196" s="20"/>
@@ -9225,7 +9343,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
-      <c r="J197" s="46"/>
+      <c r="J197" s="50"/>
       <c r="K197" s="21"/>
       <c r="L197" s="22"/>
       <c r="M197" s="20"/>
@@ -9242,7 +9360,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
-      <c r="J198" s="46"/>
+      <c r="J198" s="50"/>
       <c r="K198" s="21"/>
       <c r="L198" s="22"/>
       <c r="M198" s="20"/>
@@ -9259,7 +9377,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
-      <c r="J199" s="46"/>
+      <c r="J199" s="50"/>
       <c r="K199" s="21"/>
       <c r="L199" s="22"/>
       <c r="M199" s="20"/>
@@ -9276,7 +9394,7 @@
       <c r="G200" s="25"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
-      <c r="J200" s="46"/>
+      <c r="J200" s="50"/>
       <c r="K200" s="21"/>
       <c r="L200" s="22"/>
       <c r="M200" s="20"/>
@@ -9327,4 +9445,6978 @@
     <ignoredError sqref="C21 C15" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O178"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="5" customWidth="1"/>
+    <col min="5" max="7" width="23.75" style="5" customWidth="1"/>
+    <col min="8" max="9" width="20" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20" style="6" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19" style="8" customWidth="1"/>
+    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A1" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="44"/>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:15">
+      <c r="A2" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" ht="10" customHeight="1" spans="1:15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A4" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>613</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="1:15">
+      <c r="A5" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="1:15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" ht="23" customHeight="1" spans="1:15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" ht="23" customHeight="1" spans="1:15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="1:15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:15">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:15">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:15">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:15">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" ht="23" customHeight="1" spans="1:15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" ht="23" customHeight="1" spans="1:15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:15">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" ht="23" customHeight="1" spans="1:15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" ht="23" customHeight="1" spans="1:15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" ht="23" customHeight="1" spans="1:15">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:15">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" ht="23" customHeight="1" spans="1:15">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" ht="23" customHeight="1" spans="1:15">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" ht="23" customHeight="1" spans="1:15">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" ht="23" customHeight="1" spans="1:15">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" ht="23" customHeight="1" spans="1:15">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" ht="23" customHeight="1" spans="1:15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" ht="23" customHeight="1" spans="1:15">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" ht="23" customHeight="1" spans="1:15">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" ht="23" customHeight="1" spans="1:15">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" ht="23" customHeight="1" spans="1:15">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" ht="23" customHeight="1" spans="1:15">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="21"/>
+    </row>
+    <row r="62" ht="23" customHeight="1" spans="1:15">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" ht="23" customHeight="1" spans="1:15">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" ht="23" customHeight="1" spans="1:15">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" ht="23" customHeight="1" spans="1:15">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="21"/>
+    </row>
+    <row r="67" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" ht="23" customHeight="1" spans="1:15">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="21"/>
+    </row>
+    <row r="69" ht="23" customHeight="1" spans="1:15">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="21"/>
+    </row>
+    <row r="70" ht="23" customHeight="1" spans="1:15">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="21"/>
+    </row>
+    <row r="71" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="21"/>
+    </row>
+    <row r="72" ht="23" customHeight="1" spans="1:15">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="21"/>
+    </row>
+    <row r="73" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="21"/>
+    </row>
+    <row r="74" ht="23" customHeight="1" spans="1:15">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="21"/>
+    </row>
+    <row r="75" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="21"/>
+    </row>
+    <row r="76" ht="23" customHeight="1" spans="1:15">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="21"/>
+    </row>
+    <row r="77" ht="23" customHeight="1" spans="1:15">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="21"/>
+    </row>
+    <row r="78" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="21"/>
+    </row>
+    <row r="79" ht="23" customHeight="1" spans="1:15">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="21"/>
+    </row>
+    <row r="80" ht="23" customHeight="1" spans="1:15">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="21"/>
+    </row>
+    <row r="81" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="21"/>
+    </row>
+    <row r="82" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="21"/>
+    </row>
+    <row r="83" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="21"/>
+    </row>
+    <row r="84" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="21"/>
+    </row>
+    <row r="85" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="21"/>
+    </row>
+    <row r="86" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="21"/>
+    </row>
+    <row r="87" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="21"/>
+    </row>
+    <row r="88" ht="23" customHeight="1" spans="1:15">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="21"/>
+    </row>
+    <row r="89" ht="23" customHeight="1" spans="1:15">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="21"/>
+    </row>
+    <row r="90" ht="23" customHeight="1" spans="1:15">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="21"/>
+    </row>
+    <row r="91" ht="23" customHeight="1" spans="1:15">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="21"/>
+    </row>
+    <row r="92" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="21"/>
+    </row>
+    <row r="93" ht="23" customHeight="1" spans="1:15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="21"/>
+    </row>
+    <row r="94" ht="23" customHeight="1" spans="1:15">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="21"/>
+    </row>
+    <row r="95" ht="23" customHeight="1" spans="1:15">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="21"/>
+    </row>
+    <row r="96" ht="23" customHeight="1" spans="1:15">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="21"/>
+    </row>
+    <row r="97" ht="23" customHeight="1" spans="1:15">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="21"/>
+    </row>
+    <row r="98" ht="23" customHeight="1" spans="1:15">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="21"/>
+    </row>
+    <row r="99" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="21"/>
+    </row>
+    <row r="100" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="21"/>
+    </row>
+    <row r="101" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="21"/>
+    </row>
+    <row r="102" ht="23" customHeight="1" spans="1:15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="21"/>
+    </row>
+    <row r="103" ht="23" customHeight="1" spans="1:15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="21"/>
+    </row>
+    <row r="104" ht="23" customHeight="1" spans="1:15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="21"/>
+    </row>
+    <row r="105" ht="23" customHeight="1" spans="1:15">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="21"/>
+    </row>
+    <row r="106" ht="23" customHeight="1" spans="1:15">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="21"/>
+    </row>
+    <row r="107" ht="23" customHeight="1" spans="1:15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="21"/>
+    </row>
+    <row r="108" ht="23" customHeight="1" spans="1:15">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="21"/>
+    </row>
+    <row r="109" ht="23" customHeight="1" spans="1:15">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="21"/>
+    </row>
+    <row r="110" ht="23" customHeight="1" spans="1:15">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="21"/>
+    </row>
+    <row r="111" ht="23" customHeight="1" spans="1:15">
+      <c r="A111" s="18"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="21"/>
+    </row>
+    <row r="112" ht="23" customHeight="1" spans="1:15">
+      <c r="A112" s="18"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="21"/>
+    </row>
+    <row r="113" ht="23" customHeight="1" spans="1:15">
+      <c r="A113" s="18"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="50"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="21"/>
+    </row>
+    <row r="114" ht="23" customHeight="1" spans="1:15">
+      <c r="A114" s="18"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="21"/>
+    </row>
+    <row r="115" ht="23" customHeight="1" spans="1:15">
+      <c r="A115" s="18"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="21"/>
+    </row>
+    <row r="116" ht="23" customHeight="1" spans="1:15">
+      <c r="A116" s="18"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="21"/>
+    </row>
+    <row r="117" ht="23" customHeight="1" spans="1:15">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="21"/>
+    </row>
+    <row r="118" ht="23" customHeight="1" spans="1:15">
+      <c r="A118" s="18"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="21"/>
+    </row>
+    <row r="119" ht="23" customHeight="1" spans="1:15">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="21"/>
+    </row>
+    <row r="120" ht="23" customHeight="1" spans="1:15">
+      <c r="A120" s="18"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="50"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="21"/>
+    </row>
+    <row r="121" ht="23" customHeight="1" spans="1:15">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="21"/>
+    </row>
+    <row r="122" ht="23" customHeight="1" spans="1:15">
+      <c r="A122" s="18"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="50"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="21"/>
+    </row>
+    <row r="123" ht="23" customHeight="1" spans="1:15">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="21"/>
+    </row>
+    <row r="124" ht="23" customHeight="1" spans="1:15">
+      <c r="A124" s="18"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="50"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="21"/>
+    </row>
+    <row r="125" ht="23" customHeight="1" spans="1:15">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="21"/>
+    </row>
+    <row r="126" ht="23" customHeight="1" spans="1:15">
+      <c r="A126" s="18"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="50"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="21"/>
+    </row>
+    <row r="127" ht="23" customHeight="1" spans="1:15">
+      <c r="A127" s="18"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="21"/>
+    </row>
+    <row r="128" ht="23" customHeight="1" spans="1:15">
+      <c r="A128" s="18"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="50"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="21"/>
+    </row>
+    <row r="129" ht="23" customHeight="1" spans="1:15">
+      <c r="A129" s="18"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="21"/>
+    </row>
+    <row r="130" ht="23" customHeight="1" spans="1:15">
+      <c r="A130" s="18"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="50"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="21"/>
+    </row>
+    <row r="131" ht="23" customHeight="1" spans="1:15">
+      <c r="A131" s="18"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="50"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="21"/>
+    </row>
+    <row r="132" ht="23" customHeight="1" spans="1:15">
+      <c r="A132" s="18"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="50"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="21"/>
+    </row>
+    <row r="133" ht="23" customHeight="1" spans="1:15">
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="50"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="21"/>
+    </row>
+    <row r="134" ht="23" customHeight="1" spans="1:15">
+      <c r="A134" s="18"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="21"/>
+    </row>
+    <row r="135" ht="23" customHeight="1" spans="1:15">
+      <c r="A135" s="18"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="50"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="21"/>
+    </row>
+    <row r="136" ht="23" customHeight="1" spans="1:15">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="50"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="21"/>
+    </row>
+    <row r="137" ht="23" customHeight="1" spans="1:15">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="50"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="21"/>
+    </row>
+    <row r="138" ht="23" customHeight="1" spans="1:15">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="50"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="21"/>
+    </row>
+    <row r="139" ht="23" customHeight="1" spans="1:15">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="50"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="21"/>
+    </row>
+    <row r="140" ht="23" customHeight="1" spans="1:15">
+      <c r="A140" s="18"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="50"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="21"/>
+    </row>
+    <row r="141" ht="23" customHeight="1" spans="1:15">
+      <c r="A141" s="18"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="21"/>
+    </row>
+    <row r="142" ht="23" customHeight="1" spans="1:15">
+      <c r="A142" s="18"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="50"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="21"/>
+    </row>
+    <row r="143" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="18"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="50"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="21"/>
+    </row>
+    <row r="144" ht="23" customHeight="1" spans="1:15">
+      <c r="A144" s="18"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="21"/>
+    </row>
+    <row r="145" ht="23" customHeight="1" spans="1:15">
+      <c r="A145" s="18"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="50"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="21"/>
+    </row>
+    <row r="146" ht="23" customHeight="1" spans="1:15">
+      <c r="A146" s="18"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="50"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="21"/>
+    </row>
+    <row r="147" ht="23" customHeight="1" spans="1:15">
+      <c r="A147" s="18"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="21"/>
+    </row>
+    <row r="148" ht="23" customHeight="1" spans="1:15">
+      <c r="A148" s="18"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="50"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="21"/>
+    </row>
+    <row r="149" ht="23" customHeight="1" spans="1:15">
+      <c r="A149" s="18"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="50"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="21"/>
+    </row>
+    <row r="150" ht="23" customHeight="1" spans="1:15">
+      <c r="A150" s="18"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="50"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="22"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="22"/>
+      <c r="O150" s="21"/>
+    </row>
+    <row r="151" ht="23" customHeight="1" spans="1:15">
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="50"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="21"/>
+    </row>
+    <row r="152" ht="23" customHeight="1" spans="1:15">
+      <c r="A152" s="18"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="50"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="22"/>
+      <c r="O152" s="21"/>
+    </row>
+    <row r="153" ht="23" customHeight="1" spans="1:15">
+      <c r="A153" s="18"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="50"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="21"/>
+    </row>
+    <row r="154" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="18"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="21"/>
+    </row>
+    <row r="155" ht="23" customHeight="1" spans="1:15">
+      <c r="A155" s="18"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="50"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="21"/>
+    </row>
+    <row r="156" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="18"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="50"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="21"/>
+    </row>
+    <row r="157" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="18"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="50"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="22"/>
+      <c r="O157" s="21"/>
+    </row>
+    <row r="158" ht="23" customHeight="1" spans="1:15">
+      <c r="A158" s="18"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="50"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="22"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="22"/>
+      <c r="O158" s="21"/>
+    </row>
+    <row r="159" ht="23" customHeight="1" spans="1:15">
+      <c r="A159" s="18"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="22"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="22"/>
+      <c r="O159" s="21"/>
+    </row>
+    <row r="160" ht="23" customHeight="1" spans="1:15">
+      <c r="A160" s="18"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="50"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="22"/>
+      <c r="O160" s="21"/>
+    </row>
+    <row r="161" ht="23" customHeight="1" spans="1:15">
+      <c r="A161" s="18"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="22"/>
+      <c r="O161" s="21"/>
+    </row>
+    <row r="162" ht="23" customHeight="1" spans="1:15">
+      <c r="A162" s="18"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="50"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="22"/>
+      <c r="O162" s="21"/>
+    </row>
+    <row r="163" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="18"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="50"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="22"/>
+      <c r="O163" s="21"/>
+    </row>
+    <row r="164" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="18"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="22"/>
+      <c r="O164" s="21"/>
+    </row>
+    <row r="165" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="18"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="50"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="21"/>
+    </row>
+    <row r="166" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="18"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="50"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="21"/>
+    </row>
+    <row r="167" ht="23" customHeight="1" spans="1:15">
+      <c r="A167" s="18"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="21"/>
+    </row>
+    <row r="168" ht="23" customHeight="1" spans="1:15">
+      <c r="A168" s="18"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="22"/>
+      <c r="O168" s="21"/>
+    </row>
+    <row r="169" ht="23" customHeight="1" spans="1:15">
+      <c r="A169" s="18"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="22"/>
+      <c r="O169" s="21"/>
+    </row>
+    <row r="170" ht="23" customHeight="1" spans="1:15">
+      <c r="A170" s="18"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="50"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="22"/>
+      <c r="O170" s="21"/>
+    </row>
+    <row r="171" ht="23" customHeight="1" spans="1:15">
+      <c r="A171" s="18"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="22"/>
+      <c r="O171" s="21"/>
+    </row>
+    <row r="172" ht="23" customHeight="1" spans="1:15">
+      <c r="A172" s="18"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="22"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="22"/>
+      <c r="O172" s="21"/>
+    </row>
+    <row r="173" ht="23" customHeight="1" spans="1:15">
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="50"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="22"/>
+      <c r="M173" s="20"/>
+      <c r="N173" s="22"/>
+      <c r="O173" s="21"/>
+    </row>
+    <row r="174" ht="23" customHeight="1" spans="1:15">
+      <c r="A174" s="18"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="50"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="22"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="22"/>
+      <c r="O174" s="21"/>
+    </row>
+    <row r="175" ht="23" customHeight="1" spans="1:15">
+      <c r="A175" s="18"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="50"/>
+      <c r="K175" s="21"/>
+      <c r="L175" s="22"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="22"/>
+      <c r="O175" s="21"/>
+    </row>
+    <row r="176" ht="23" customHeight="1" spans="1:15">
+      <c r="A176" s="18"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="50"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="22"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="22"/>
+      <c r="O176" s="21"/>
+    </row>
+    <row r="177" ht="23" customHeight="1" spans="1:15">
+      <c r="A177" s="18"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="50"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="22"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="22"/>
+      <c r="O177" s="21"/>
+    </row>
+    <row r="178" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="18"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="50"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="22"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="22"/>
+      <c r="O178" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N79:N178">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N79,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N79,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N79,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N78">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C7:C8 C10:C13 C14:C178">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D7:D8 D10:D13 D14:D178">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.25" style="5" customWidth="1"/>
+    <col min="5" max="7" width="37.5" style="5" customWidth="1"/>
+    <col min="8" max="9" width="18.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19" style="8" customWidth="1"/>
+    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A1" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="44"/>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:15">
+      <c r="A2" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" ht="10" customHeight="1" spans="1:15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A4" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>613</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="1:15">
+      <c r="A5" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="1:15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>690</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" ht="23" customHeight="1" spans="1:15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" ht="23" customHeight="1" spans="1:15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="1:15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:15">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:15">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:15">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:15">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" ht="23" customHeight="1" spans="1:15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" ht="23" customHeight="1" spans="1:15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:15">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" ht="23" customHeight="1" spans="1:15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" ht="23" customHeight="1" spans="1:15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" ht="23" customHeight="1" spans="1:15">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:15">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" ht="23" customHeight="1" spans="1:15">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" ht="23" customHeight="1" spans="1:15">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" ht="23" customHeight="1" spans="1:15">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" ht="23" customHeight="1" spans="1:15">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" ht="23" customHeight="1" spans="1:15">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" ht="23" customHeight="1" spans="1:15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" ht="23" customHeight="1" spans="1:15">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" ht="23" customHeight="1" spans="1:15">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" ht="23" customHeight="1" spans="1:15">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" ht="23" customHeight="1" spans="1:15">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" ht="23" customHeight="1" spans="1:15">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="21"/>
+    </row>
+    <row r="62" ht="23" customHeight="1" spans="1:15">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" ht="23" customHeight="1" spans="1:15">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" ht="23" customHeight="1" spans="1:15">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" ht="23" customHeight="1" spans="1:15">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="21"/>
+    </row>
+    <row r="67" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" ht="23" customHeight="1" spans="1:15">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="21"/>
+    </row>
+    <row r="69" ht="23" customHeight="1" spans="1:15">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="21"/>
+    </row>
+    <row r="70" ht="23" customHeight="1" spans="1:15">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="21"/>
+    </row>
+    <row r="71" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="21"/>
+    </row>
+    <row r="72" ht="23" customHeight="1" spans="1:15">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="21"/>
+    </row>
+    <row r="73" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="21"/>
+    </row>
+    <row r="74" ht="23" customHeight="1" spans="1:15">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="21"/>
+    </row>
+    <row r="75" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="21"/>
+    </row>
+    <row r="76" ht="23" customHeight="1" spans="1:15">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="21"/>
+    </row>
+    <row r="77" ht="23" customHeight="1" spans="1:15">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="21"/>
+    </row>
+    <row r="78" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="21"/>
+    </row>
+    <row r="79" ht="23" customHeight="1" spans="1:15">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="21"/>
+    </row>
+    <row r="80" ht="23" customHeight="1" spans="1:15">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="21"/>
+    </row>
+    <row r="81" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="21"/>
+    </row>
+    <row r="82" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="21"/>
+    </row>
+    <row r="83" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="21"/>
+    </row>
+    <row r="84" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="21"/>
+    </row>
+    <row r="85" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="21"/>
+    </row>
+    <row r="86" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="21"/>
+    </row>
+    <row r="87" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="21"/>
+    </row>
+    <row r="88" ht="23" customHeight="1" spans="1:15">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="21"/>
+    </row>
+    <row r="89" ht="23" customHeight="1" spans="1:15">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="21"/>
+    </row>
+    <row r="90" ht="23" customHeight="1" spans="1:15">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="21"/>
+    </row>
+    <row r="91" ht="23" customHeight="1" spans="1:15">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="21"/>
+    </row>
+    <row r="92" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="21"/>
+    </row>
+    <row r="93" ht="23" customHeight="1" spans="1:15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="21"/>
+    </row>
+    <row r="94" ht="23" customHeight="1" spans="1:15">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="21"/>
+    </row>
+    <row r="95" ht="23" customHeight="1" spans="1:15">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="21"/>
+    </row>
+    <row r="96" ht="23" customHeight="1" spans="1:15">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="21"/>
+    </row>
+    <row r="97" ht="23" customHeight="1" spans="1:15">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="21"/>
+    </row>
+    <row r="98" ht="23" customHeight="1" spans="1:15">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="21"/>
+    </row>
+    <row r="99" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="21"/>
+    </row>
+    <row r="100" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="21"/>
+    </row>
+    <row r="101" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="21"/>
+    </row>
+    <row r="102" ht="23" customHeight="1" spans="1:15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="21"/>
+    </row>
+    <row r="103" ht="23" customHeight="1" spans="1:15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="21"/>
+    </row>
+    <row r="104" ht="23" customHeight="1" spans="1:15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="21"/>
+    </row>
+    <row r="105" ht="23" customHeight="1" spans="1:15">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="21"/>
+    </row>
+    <row r="106" ht="23" customHeight="1" spans="1:15">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="21"/>
+    </row>
+    <row r="107" ht="23" customHeight="1" spans="1:15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="21"/>
+    </row>
+    <row r="108" ht="23" customHeight="1" spans="1:15">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="21"/>
+    </row>
+    <row r="109" ht="23" customHeight="1" spans="1:15">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="21"/>
+    </row>
+    <row r="110" ht="23" customHeight="1" spans="1:15">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="21"/>
+    </row>
+    <row r="111" ht="23" customHeight="1" spans="1:15">
+      <c r="A111" s="18"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="21"/>
+    </row>
+    <row r="112" ht="23" customHeight="1" spans="1:15">
+      <c r="A112" s="18"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="21"/>
+    </row>
+    <row r="113" ht="23" customHeight="1" spans="1:15">
+      <c r="A113" s="18"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="50"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="21"/>
+    </row>
+    <row r="114" ht="23" customHeight="1" spans="1:15">
+      <c r="A114" s="18"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="21"/>
+    </row>
+    <row r="115" ht="23" customHeight="1" spans="1:15">
+      <c r="A115" s="18"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="21"/>
+    </row>
+    <row r="116" ht="23" customHeight="1" spans="1:15">
+      <c r="A116" s="18"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="21"/>
+    </row>
+    <row r="117" ht="23" customHeight="1" spans="1:15">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="21"/>
+    </row>
+    <row r="118" ht="23" customHeight="1" spans="1:15">
+      <c r="A118" s="18"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="21"/>
+    </row>
+    <row r="119" ht="23" customHeight="1" spans="1:15">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="21"/>
+    </row>
+    <row r="120" ht="23" customHeight="1" spans="1:15">
+      <c r="A120" s="18"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="50"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="21"/>
+    </row>
+    <row r="121" ht="23" customHeight="1" spans="1:15">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="21"/>
+    </row>
+    <row r="122" ht="23" customHeight="1" spans="1:15">
+      <c r="A122" s="18"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="50"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="21"/>
+    </row>
+    <row r="123" ht="23" customHeight="1" spans="1:15">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="21"/>
+    </row>
+    <row r="124" ht="23" customHeight="1" spans="1:15">
+      <c r="A124" s="18"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="50"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="21"/>
+    </row>
+    <row r="125" ht="23" customHeight="1" spans="1:15">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="21"/>
+    </row>
+    <row r="126" ht="23" customHeight="1" spans="1:15">
+      <c r="A126" s="18"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="50"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="21"/>
+    </row>
+    <row r="127" ht="23" customHeight="1" spans="1:15">
+      <c r="A127" s="18"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="21"/>
+    </row>
+    <row r="128" ht="23" customHeight="1" spans="1:15">
+      <c r="A128" s="18"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="50"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="21"/>
+    </row>
+    <row r="129" ht="23" customHeight="1" spans="1:15">
+      <c r="A129" s="18"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="21"/>
+    </row>
+    <row r="130" ht="23" customHeight="1" spans="1:15">
+      <c r="A130" s="18"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="50"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="21"/>
+    </row>
+    <row r="131" ht="23" customHeight="1" spans="1:15">
+      <c r="A131" s="18"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="50"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="21"/>
+    </row>
+    <row r="132" ht="23" customHeight="1" spans="1:15">
+      <c r="A132" s="18"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="50"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="21"/>
+    </row>
+    <row r="133" ht="23" customHeight="1" spans="1:15">
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="50"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="21"/>
+    </row>
+    <row r="134" ht="23" customHeight="1" spans="1:15">
+      <c r="A134" s="18"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="21"/>
+    </row>
+    <row r="135" ht="23" customHeight="1" spans="1:15">
+      <c r="A135" s="18"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="50"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="21"/>
+    </row>
+    <row r="136" ht="23" customHeight="1" spans="1:15">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="50"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="21"/>
+    </row>
+    <row r="137" ht="23" customHeight="1" spans="1:15">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="50"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="21"/>
+    </row>
+    <row r="138" ht="23" customHeight="1" spans="1:15">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="50"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="21"/>
+    </row>
+    <row r="139" ht="23" customHeight="1" spans="1:15">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="50"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="21"/>
+    </row>
+    <row r="140" ht="23" customHeight="1" spans="1:15">
+      <c r="A140" s="18"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="50"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="21"/>
+    </row>
+    <row r="141" ht="23" customHeight="1" spans="1:15">
+      <c r="A141" s="18"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="21"/>
+    </row>
+    <row r="142" ht="23" customHeight="1" spans="1:15">
+      <c r="A142" s="18"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="50"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="21"/>
+    </row>
+    <row r="143" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="18"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="50"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="21"/>
+    </row>
+    <row r="144" ht="23" customHeight="1" spans="1:15">
+      <c r="A144" s="18"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="21"/>
+    </row>
+    <row r="145" ht="23" customHeight="1" spans="1:15">
+      <c r="A145" s="18"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="50"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="21"/>
+    </row>
+    <row r="146" ht="23" customHeight="1" spans="1:15">
+      <c r="A146" s="18"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="50"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="21"/>
+    </row>
+    <row r="147" ht="23" customHeight="1" spans="1:15">
+      <c r="A147" s="18"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="21"/>
+    </row>
+    <row r="148" ht="23" customHeight="1" spans="1:15">
+      <c r="A148" s="18"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="50"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="21"/>
+    </row>
+    <row r="149" ht="23" customHeight="1" spans="1:15">
+      <c r="A149" s="18"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="50"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="21"/>
+    </row>
+    <row r="150" ht="23" customHeight="1" spans="1:15">
+      <c r="A150" s="18"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="50"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="22"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="22"/>
+      <c r="O150" s="21"/>
+    </row>
+    <row r="151" ht="23" customHeight="1" spans="1:15">
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="50"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="21"/>
+    </row>
+    <row r="152" ht="23" customHeight="1" spans="1:15">
+      <c r="A152" s="18"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="50"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="22"/>
+      <c r="O152" s="21"/>
+    </row>
+    <row r="153" ht="23" customHeight="1" spans="1:15">
+      <c r="A153" s="18"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="50"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="21"/>
+    </row>
+    <row r="154" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="18"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="21"/>
+    </row>
+    <row r="155" ht="23" customHeight="1" spans="1:15">
+      <c r="A155" s="18"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="50"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="21"/>
+    </row>
+    <row r="156" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="18"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="50"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="21"/>
+    </row>
+    <row r="157" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="18"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="50"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="22"/>
+      <c r="O157" s="21"/>
+    </row>
+    <row r="158" ht="23" customHeight="1" spans="1:15">
+      <c r="A158" s="18"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="50"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="22"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="22"/>
+      <c r="O158" s="21"/>
+    </row>
+    <row r="159" ht="23" customHeight="1" spans="1:15">
+      <c r="A159" s="18"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="22"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="22"/>
+      <c r="O159" s="21"/>
+    </row>
+    <row r="160" ht="23" customHeight="1" spans="1:15">
+      <c r="A160" s="18"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="50"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="22"/>
+      <c r="O160" s="21"/>
+    </row>
+    <row r="161" ht="23" customHeight="1" spans="1:15">
+      <c r="A161" s="18"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="22"/>
+      <c r="O161" s="21"/>
+    </row>
+    <row r="162" ht="23" customHeight="1" spans="1:15">
+      <c r="A162" s="18"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="50"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="22"/>
+      <c r="O162" s="21"/>
+    </row>
+    <row r="163" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="18"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="50"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="22"/>
+      <c r="O163" s="21"/>
+    </row>
+    <row r="164" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="18"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="22"/>
+      <c r="O164" s="21"/>
+    </row>
+    <row r="165" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="18"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="50"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="21"/>
+    </row>
+    <row r="166" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="18"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="50"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="21"/>
+    </row>
+    <row r="167" ht="23" customHeight="1" spans="1:15">
+      <c r="A167" s="18"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="21"/>
+    </row>
+    <row r="168" ht="23" customHeight="1" spans="1:15">
+      <c r="A168" s="18"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="22"/>
+      <c r="O168" s="21"/>
+    </row>
+    <row r="169" ht="23" customHeight="1" spans="1:15">
+      <c r="A169" s="18"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="22"/>
+      <c r="O169" s="21"/>
+    </row>
+    <row r="170" ht="23" customHeight="1" spans="1:15">
+      <c r="A170" s="18"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="50"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="22"/>
+      <c r="O170" s="21"/>
+    </row>
+    <row r="171" ht="23" customHeight="1" spans="1:15">
+      <c r="A171" s="18"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="22"/>
+      <c r="O171" s="21"/>
+    </row>
+    <row r="172" ht="23" customHeight="1" spans="1:15">
+      <c r="A172" s="18"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="22"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="22"/>
+      <c r="O172" s="21"/>
+    </row>
+    <row r="173" ht="23" customHeight="1" spans="1:15">
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="50"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="22"/>
+      <c r="M173" s="20"/>
+      <c r="N173" s="22"/>
+      <c r="O173" s="21"/>
+    </row>
+    <row r="174" ht="23" customHeight="1" spans="1:15">
+      <c r="A174" s="18"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="50"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="22"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="22"/>
+      <c r="O174" s="21"/>
+    </row>
+    <row r="175" ht="23" customHeight="1" spans="1:15">
+      <c r="A175" s="18"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="50"/>
+      <c r="K175" s="21"/>
+      <c r="L175" s="22"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="22"/>
+      <c r="O175" s="21"/>
+    </row>
+    <row r="176" ht="23" customHeight="1" spans="1:15">
+      <c r="A176" s="18"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="50"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="22"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="22"/>
+      <c r="O176" s="21"/>
+    </row>
+    <row r="177" ht="23" customHeight="1" spans="1:15">
+      <c r="A177" s="18"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="50"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="22"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="22"/>
+      <c r="O177" s="21"/>
+    </row>
+    <row r="178" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="18"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="50"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="22"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="22"/>
+      <c r="O178" s="21"/>
+    </row>
+    <row r="179" ht="23" customHeight="1" spans="1:15">
+      <c r="A179" s="18"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="50"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="22"/>
+      <c r="M179" s="20"/>
+      <c r="N179" s="22"/>
+      <c r="O179" s="21"/>
+    </row>
+    <row r="180" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="18"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="25"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="50"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="22"/>
+      <c r="M180" s="20"/>
+      <c r="N180" s="22"/>
+      <c r="O180" s="21"/>
+    </row>
+    <row r="181" ht="23" customHeight="1" spans="1:15">
+      <c r="A181" s="18"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="25"/>
+      <c r="H181" s="25"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="50"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="22"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="22"/>
+      <c r="O181" s="21"/>
+    </row>
+    <row r="182" ht="23" customHeight="1" spans="1:15">
+      <c r="A182" s="18"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="50"/>
+      <c r="K182" s="21"/>
+      <c r="L182" s="22"/>
+      <c r="M182" s="20"/>
+      <c r="N182" s="22"/>
+      <c r="O182" s="21"/>
+    </row>
+    <row r="183" ht="23" customHeight="1" spans="1:15">
+      <c r="A183" s="18"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="50"/>
+      <c r="K183" s="21"/>
+      <c r="L183" s="22"/>
+      <c r="M183" s="20"/>
+      <c r="N183" s="22"/>
+      <c r="O183" s="21"/>
+    </row>
+    <row r="184" ht="23" customHeight="1" spans="1:15">
+      <c r="A184" s="18"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="25"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="22"/>
+      <c r="M184" s="20"/>
+      <c r="N184" s="22"/>
+      <c r="O184" s="21"/>
+    </row>
+    <row r="185" ht="23" customHeight="1" spans="1:15">
+      <c r="A185" s="18"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="25"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="25"/>
+      <c r="J185" s="50"/>
+      <c r="K185" s="21"/>
+      <c r="L185" s="22"/>
+      <c r="M185" s="20"/>
+      <c r="N185" s="22"/>
+      <c r="O185" s="21"/>
+    </row>
+    <row r="186" ht="23" customHeight="1" spans="1:15">
+      <c r="A186" s="18"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="50"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="22"/>
+      <c r="M186" s="20"/>
+      <c r="N186" s="22"/>
+      <c r="O186" s="21"/>
+    </row>
+    <row r="187" ht="23" customHeight="1" spans="1:15">
+      <c r="A187" s="18"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="50"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="22"/>
+      <c r="M187" s="20"/>
+      <c r="N187" s="22"/>
+      <c r="O187" s="21"/>
+    </row>
+    <row r="188" ht="23" customHeight="1" spans="1:15">
+      <c r="A188" s="18"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="25"/>
+      <c r="E188" s="25"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="50"/>
+      <c r="K188" s="21"/>
+      <c r="L188" s="22"/>
+      <c r="M188" s="20"/>
+      <c r="N188" s="22"/>
+      <c r="O188" s="21"/>
+    </row>
+    <row r="189" ht="23" customHeight="1" spans="1:15">
+      <c r="A189" s="18"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25"/>
+      <c r="F189" s="25"/>
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="50"/>
+      <c r="K189" s="21"/>
+      <c r="L189" s="22"/>
+      <c r="M189" s="20"/>
+      <c r="N189" s="22"/>
+      <c r="O189" s="21"/>
+    </row>
+    <row r="190" ht="23" customHeight="1" spans="1:15">
+      <c r="A190" s="18"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="25"/>
+      <c r="E190" s="25"/>
+      <c r="F190" s="25"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="25"/>
+      <c r="I190" s="25"/>
+      <c r="J190" s="50"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="22"/>
+      <c r="M190" s="20"/>
+      <c r="N190" s="22"/>
+      <c r="O190" s="21"/>
+    </row>
+    <row r="191" ht="23" customHeight="1" spans="1:15">
+      <c r="A191" s="18"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="25"/>
+      <c r="E191" s="25"/>
+      <c r="F191" s="25"/>
+      <c r="G191" s="25"/>
+      <c r="H191" s="25"/>
+      <c r="I191" s="25"/>
+      <c r="J191" s="50"/>
+      <c r="K191" s="21"/>
+      <c r="L191" s="22"/>
+      <c r="M191" s="20"/>
+      <c r="N191" s="22"/>
+      <c r="O191" s="21"/>
+    </row>
+    <row r="192" ht="23" customHeight="1" spans="1:15">
+      <c r="A192" s="18"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="25"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="25"/>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="50"/>
+      <c r="K192" s="21"/>
+      <c r="L192" s="22"/>
+      <c r="M192" s="20"/>
+      <c r="N192" s="22"/>
+      <c r="O192" s="21"/>
+    </row>
+    <row r="193" ht="23" customHeight="1" spans="1:15">
+      <c r="A193" s="18"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="50"/>
+      <c r="K193" s="21"/>
+      <c r="L193" s="22"/>
+      <c r="M193" s="20"/>
+      <c r="N193" s="22"/>
+      <c r="O193" s="21"/>
+    </row>
+    <row r="194" ht="23" customHeight="1" spans="1:15">
+      <c r="A194" s="18"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="21"/>
+      <c r="L194" s="22"/>
+      <c r="M194" s="20"/>
+      <c r="N194" s="22"/>
+      <c r="O194" s="21"/>
+    </row>
+    <row r="195" ht="23" customHeight="1" spans="1:15">
+      <c r="A195" s="18"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="25"/>
+      <c r="G195" s="25"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="50"/>
+      <c r="K195" s="21"/>
+      <c r="L195" s="22"/>
+      <c r="M195" s="20"/>
+      <c r="N195" s="22"/>
+      <c r="O195" s="21"/>
+    </row>
+    <row r="196" ht="23" customHeight="1" spans="1:15">
+      <c r="A196" s="18"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="25"/>
+      <c r="G196" s="25"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="50"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="22"/>
+      <c r="M196" s="20"/>
+      <c r="N196" s="22"/>
+      <c r="O196" s="21"/>
+    </row>
+    <row r="197" ht="23" customHeight="1" spans="1:15">
+      <c r="A197" s="18"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="25"/>
+      <c r="E197" s="25"/>
+      <c r="F197" s="25"/>
+      <c r="G197" s="25"/>
+      <c r="H197" s="25"/>
+      <c r="I197" s="25"/>
+      <c r="J197" s="50"/>
+      <c r="K197" s="21"/>
+      <c r="L197" s="22"/>
+      <c r="M197" s="20"/>
+      <c r="N197" s="22"/>
+      <c r="O197" s="21"/>
+    </row>
+    <row r="198" ht="23" customHeight="1" spans="1:15">
+      <c r="A198" s="18"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="25"/>
+      <c r="E198" s="25"/>
+      <c r="F198" s="25"/>
+      <c r="G198" s="25"/>
+      <c r="H198" s="25"/>
+      <c r="I198" s="25"/>
+      <c r="J198" s="50"/>
+      <c r="K198" s="21"/>
+      <c r="L198" s="22"/>
+      <c r="M198" s="20"/>
+      <c r="N198" s="22"/>
+      <c r="O198" s="21"/>
+    </row>
+    <row r="199" ht="23" customHeight="1" spans="1:15">
+      <c r="A199" s="18"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="25"/>
+      <c r="E199" s="25"/>
+      <c r="F199" s="25"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="25"/>
+      <c r="I199" s="25"/>
+      <c r="J199" s="50"/>
+      <c r="K199" s="21"/>
+      <c r="L199" s="22"/>
+      <c r="M199" s="20"/>
+      <c r="N199" s="22"/>
+      <c r="O199" s="21"/>
+    </row>
+    <row r="200" ht="23" customHeight="1" spans="1:15">
+      <c r="A200" s="18"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="25"/>
+      <c r="E200" s="25"/>
+      <c r="F200" s="25"/>
+      <c r="G200" s="25"/>
+      <c r="H200" s="25"/>
+      <c r="I200" s="25"/>
+      <c r="J200" s="50"/>
+      <c r="K200" s="21"/>
+      <c r="L200" s="22"/>
+      <c r="M200" s="20"/>
+      <c r="N200" s="22"/>
+      <c r="O200" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N101:N200">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N100">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C5:C16 C18:C200">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D5:D16 D18:D200">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12645" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28770" windowHeight="12435" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1995,7 +1995,7 @@
   </si>
   <si>
     <t>Welcome! Glad you've joined us! 
-$(random|any|256)
+$(random|alphanumeric|256)
 &lt;a href="https://www.website.com/link?id=$(random|alphanumeric|64)"&gt;Get Started&lt;/a&gt;
 &lt;br/&gt;</t>
   </si>
@@ -2179,10 +2179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2254,7 +2254,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2262,23 +2262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,7 +2277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2307,75 +2291,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,7 +2322,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2424,13 +2424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,19 +2448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2466,37 +2460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2514,13 +2502,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,73 +2592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,17 +2731,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2757,21 +2763,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2811,6 +2802,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2828,7 +2828,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2846,128 +2846,128 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5784,10 +5784,10 @@
   <sheetPr/>
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -12837,10 +12837,10 @@
   <sheetPr/>
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="12435" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28770" windowHeight="12435" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2009,7 +2009,7 @@
     <t>let mailinator catch up</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>20000</t>
   </si>
   <si>
     <t>Mailinator</t>
@@ -5784,10 +5784,10 @@
   <sheetPr/>
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -12837,10 +12837,10 @@
   <sheetPr/>
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="708">
   <si>
     <t>target</t>
   </si>
@@ -2009,154 +2009,169 @@
     <t>let mailinator catch up</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>mails</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>${mails}</t>
   </si>
   <si>
     <t>Mailinator</t>
   </si>
   <si>
+    <t>we'll wait up to 5 minutes for all the mails to arrive</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>[LIST(${mails}) =&gt; size]</t>
+  </si>
+  <si>
+    <t>wait and retry...</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
     <t>retrieve mail</t>
   </si>
   <si>
-    <t>mails</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>${mails}</t>
+    <t>retrieve mail details</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>[LIST(${mails}) =&gt; item(${i})]</t>
+  </si>
+  <si>
+    <t>${mail}</t>
+  </si>
+  <si>
+    <t>assert expected value per mail</t>
+  </si>
+  <si>
+    <t>${mail}.id</t>
+  </si>
+  <si>
+    <t>${webmail.inbox}-</t>
+  </si>
+  <si>
+    <t>${mail}.subject</t>
+  </si>
+  <si>
+    <t>Welcome to the Club #</t>
+  </si>
+  <si>
+    <t>${MyMail.username}</t>
+  </si>
+  <si>
+    <t>${mail}.from</t>
+  </si>
+  <si>
+    <t>${mail}.to</t>
+  </si>
+  <si>
+    <t>${mail}.time</t>
+  </si>
+  <si>
+    <t>$(sysdate|now|yyyy-MM-dd)</t>
+  </si>
+  <si>
+    <t>${mail}.content</t>
+  </si>
+  <si>
+    <t>Welcome! Glad you've joined us!</t>
+  </si>
+  <si>
+    <t>[LIST(${mail}.links) =&gt; size]</t>
+  </si>
+  <si>
+    <t>detail mail</t>
+  </si>
+  <si>
+    <t>nexial.browser</t>
+  </si>
+  <si>
+    <t>chrome.headless</t>
+  </si>
+  <si>
+    <t>site.url</t>
+  </si>
+  <si>
+    <t>https://www.mailinator.com/</t>
+  </si>
+  <si>
+    <t>loc.nav-items</t>
+  </si>
+  <si>
+    <t>css=.wrapper-nav-items a</t>
+  </si>
+  <si>
+    <t>loc.email-link</t>
+  </si>
+  <si>
+    <t>css=.wrapper-nav-items a[aria-label='Email']</t>
+  </si>
+  <si>
+    <t>expected.email-link</t>
+  </si>
+  <si>
+    <t>https://www.mailinator.com/v4/public/inboxes.jsp</t>
+  </si>
+  <si>
+    <t>Go to Site</t>
+  </si>
+  <si>
+    <t>${site.url}</t>
+  </si>
+  <si>
+    <t>${loc.nav-items}</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>${loc.email-link}</t>
+  </si>
+  <si>
+    <t>actual.email-link</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>Assert Email Link</t>
+  </si>
+  <si>
+    <t>${expected.email-link}</t>
+  </si>
+  <si>
+    <t>${actual.email-link}</t>
+  </si>
+  <si>
+    <t>${webmail2.inbox}@temporary-mail.net</t>
+  </si>
+  <si>
+    <t>Temporary-mail</t>
+  </si>
+  <si>
+    <t>webmail2</t>
   </si>
   <si>
     <t>assert all sent email are found</t>
-  </si>
-  <si>
-    <t>[LIST(${mails}) =&gt; size]</t>
-  </si>
-  <si>
-    <t>retrieve mail details</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>[LIST(${mails}) =&gt; item(${i})]</t>
-  </si>
-  <si>
-    <t>${mail}</t>
-  </si>
-  <si>
-    <t>assert expected value per mail</t>
-  </si>
-  <si>
-    <t>${mail}.id</t>
-  </si>
-  <si>
-    <t>${webmail.inbox}-</t>
-  </si>
-  <si>
-    <t>${mail}.subject</t>
-  </si>
-  <si>
-    <t>Welcome to the Club #</t>
-  </si>
-  <si>
-    <t>${MyMail.username}</t>
-  </si>
-  <si>
-    <t>${mail}.from</t>
-  </si>
-  <si>
-    <t>${mail}.to</t>
-  </si>
-  <si>
-    <t>${mail}.time</t>
-  </si>
-  <si>
-    <t>$(sysdate|now|yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>${mail}.content</t>
-  </si>
-  <si>
-    <t>Welcome! Glad you've joined us!</t>
-  </si>
-  <si>
-    <t>[LIST(${mail}.links) =&gt; size]</t>
-  </si>
-  <si>
-    <t>detail mail</t>
-  </si>
-  <si>
-    <t>nexial.browser</t>
-  </si>
-  <si>
-    <t>chrome.headless</t>
-  </si>
-  <si>
-    <t>site.url</t>
-  </si>
-  <si>
-    <t>https://www.mailinator.com/</t>
-  </si>
-  <si>
-    <t>loc.nav-items</t>
-  </si>
-  <si>
-    <t>css=.wrapper-nav-items a</t>
-  </si>
-  <si>
-    <t>loc.email-link</t>
-  </si>
-  <si>
-    <t>css=.wrapper-nav-items a[aria-label='Email']</t>
-  </si>
-  <si>
-    <t>expected.email-link</t>
-  </si>
-  <si>
-    <t>https://www.mailinator.com/v4/public/inboxes.jsp</t>
-  </si>
-  <si>
-    <t>Go to Site</t>
-  </si>
-  <si>
-    <t>${site.url}</t>
-  </si>
-  <si>
-    <t>${loc.nav-items}</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>${loc.email-link}</t>
-  </si>
-  <si>
-    <t>actual.email-link</t>
-  </si>
-  <si>
-    <t>href</t>
-  </si>
-  <si>
-    <t>Assert Email Link</t>
-  </si>
-  <si>
-    <t>${expected.email-link}</t>
-  </si>
-  <si>
-    <t>${actual.email-link}</t>
-  </si>
-  <si>
-    <t>${webmail2.inbox}@temporary-mail.net</t>
-  </si>
-  <si>
-    <t>Temporary-mail</t>
-  </si>
-  <si>
-    <t>webmail2</t>
   </si>
   <si>
     <t>delete just 5 emails</t>
@@ -2397,7 +2412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2413,6 +2428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,7 +2849,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2847,28 +2868,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2886,22 +2907,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2910,68 +2931,68 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3165,6 +3186,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5782,12 +5815,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:O207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -6208,29 +6241,25 @@
       <c r="O15" s="21"/>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>649</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>651</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="32"/>
@@ -6242,15 +6271,15 @@
     </row>
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>654</v>
+      <c r="E17" s="53" t="s">
+        <v>652</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -6263,22 +6292,24 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" ht="35" customHeight="1" spans="1:15">
+      <c r="A18" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" s="56" t="s">
         <v>655</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="F18" s="25" t="s">
         <v>656</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>637</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -6292,18 +6323,18 @@
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>386</v>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>139</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>632</v>
+        <v>657</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>637</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -6317,21 +6348,19 @@
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
-      <c r="B20" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>658</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>635</v>
-      </c>
+      <c r="D20" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="F20" s="53"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
@@ -6342,23 +6371,28 @@
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>636</v>
+    <row r="21" ht="23" customHeight="1" spans="2:15">
+      <c r="B21" s="54" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>649</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>651</v>
+      </c>
       <c r="I21" s="25"/>
       <c r="J21" s="32"/>
       <c r="K21" s="21"/>
@@ -6369,22 +6403,18 @@
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>659</v>
-      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="32"/>
@@ -6396,17 +6426,19 @@
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="F23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>632</v>
+      </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
@@ -6419,20 +6451,20 @@
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="18"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="D24" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>662</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -6448,16 +6480,16 @@
       <c r="A25" s="18"/>
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -6473,18 +6505,20 @@
       <c r="A26" s="18"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>666</v>
+        <v>16</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>667</v>
-      </c>
-      <c r="G26" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>663</v>
+      </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="32"/>
@@ -6501,14 +6535,12 @@
         <v>5</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>668</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -6521,7 +6553,9 @@
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="29" t="s">
+        <v>665</v>
+      </c>
       <c r="C28" s="30" t="s">
         <v>5</v>
       </c>
@@ -6529,10 +6563,10 @@
         <v>285</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -6554,10 +6588,10 @@
         <v>285</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -6573,16 +6607,16 @@
       <c r="A30" s="18"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -6596,20 +6630,18 @@
     </row>
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="18"/>
-      <c r="B31" s="41" t="s">
-        <v>674</v>
-      </c>
+      <c r="B31" s="29"/>
       <c r="C31" s="30" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>29</v>
+        <v>642</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -6623,18 +6655,18 @@
     </row>
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="18"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>631</v>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>673</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -6648,11 +6680,19 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>676</v>
+      </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
@@ -6665,11 +6705,19 @@
     </row>
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>632</v>
+      </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
@@ -6682,11 +6730,21 @@
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="B35" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>663</v>
+      </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
@@ -6699,11 +6757,19 @@
     </row>
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>646</v>
+      </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
@@ -9553,6 +9619,74 @@
       <c r="N203" s="22"/>
       <c r="O203" s="21"/>
     </row>
+    <row r="204" ht="23" customHeight="1" spans="1:15">
+      <c r="A204" s="18"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="25"/>
+      <c r="J204" s="32"/>
+      <c r="K204" s="21"/>
+      <c r="L204" s="22"/>
+      <c r="M204" s="20"/>
+      <c r="N204" s="22"/>
+      <c r="O204" s="21"/>
+    </row>
+    <row r="205" ht="23" customHeight="1" spans="1:15">
+      <c r="A205" s="18"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
+      <c r="J205" s="32"/>
+      <c r="K205" s="21"/>
+      <c r="L205" s="22"/>
+      <c r="M205" s="20"/>
+      <c r="N205" s="22"/>
+      <c r="O205" s="21"/>
+    </row>
+    <row r="206" ht="23" customHeight="1" spans="1:15">
+      <c r="A206" s="18"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="25"/>
+      <c r="E206" s="25"/>
+      <c r="F206" s="25"/>
+      <c r="G206" s="25"/>
+      <c r="H206" s="25"/>
+      <c r="I206" s="25"/>
+      <c r="J206" s="32"/>
+      <c r="K206" s="21"/>
+      <c r="L206" s="22"/>
+      <c r="M206" s="20"/>
+      <c r="N206" s="22"/>
+      <c r="O206" s="21"/>
+    </row>
+    <row r="207" ht="23" customHeight="1" spans="1:15">
+      <c r="A207" s="18"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="25"/>
+      <c r="E207" s="25"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="25"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="32"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="22"/>
+      <c r="M207" s="20"/>
+      <c r="N207" s="22"/>
+      <c r="O207" s="21"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -9561,18 +9695,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N104:N203">
+  <conditionalFormatting sqref="N108:N207">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N108,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N108,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N108,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N103">
+  <conditionalFormatting sqref="N1 N3:N107">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -9584,17 +9718,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C23 C30 C5:C14 C16:C22 C24:C29 C31:C203">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C18 C19 C20 C27 C34 C5:C14 C16:C17 C21:C22 C23:C26 C28:C33 C35:C207">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D23 D30 D5:D14 D16:D22 D24:D29 D31:D203">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D18 D19 D20 D27 D34 D5:D14 D16:D17 D21:D22 D23:D26 D28:D33 D35:D207">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C22 C16" listDataValidation="1"/>
+    <ignoredError sqref="C26 C21" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9753,10 +9887,10 @@
         <v>386</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -9778,10 +9912,10 @@
         <v>386</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -9803,10 +9937,10 @@
         <v>386</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -9828,10 +9962,10 @@
         <v>386</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -9853,10 +9987,10 @@
         <v>386</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -9870,7 +10004,7 @@
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
@@ -9880,7 +10014,7 @@
         <v>502</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -9903,10 +10037,10 @@
         <v>604</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -9928,10 +10062,10 @@
         <v>604</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -9953,13 +10087,13 @@
         <v>524</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -9972,7 +10106,7 @@
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="24" t="s">
@@ -9982,10 +10116,10 @@
         <v>44</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -13120,7 +13254,7 @@
         <v>641</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -13210,10 +13344,10 @@
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>29</v>
@@ -13222,16 +13356,16 @@
         <v>123</v>
       </c>
       <c r="E14" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>651</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>697</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>652</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>653</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="32"/>
@@ -13251,7 +13385,7 @@
         <v>426</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -13267,7 +13401,7 @@
     <row r="16" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>17</v>
@@ -13276,7 +13410,7 @@
         <v>139</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>637</v>
@@ -13294,7 +13428,7 @@
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>5</v>
@@ -13303,10 +13437,10 @@
         <v>386</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -13346,7 +13480,7 @@
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="26" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>5</v>
@@ -13355,7 +13489,7 @@
         <v>382</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>635</v>
@@ -13383,7 +13517,7 @@
         <v>636</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -13408,10 +13542,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
@@ -13425,7 +13559,7 @@
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="29" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>5</v>
@@ -13434,7 +13568,7 @@
         <v>265</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -13457,10 +13591,10 @@
         <v>285</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -13482,10 +13616,10 @@
         <v>44</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -13507,10 +13641,10 @@
         <v>44</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -13532,10 +13666,10 @@
         <v>285</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -13557,10 +13691,10 @@
         <v>285</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -13575,7 +13709,7 @@
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
       <c r="B28" s="41" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>29</v>
@@ -13584,10 +13718,10 @@
         <v>62</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="12435" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19590" windowHeight="12495" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2117,13 +2117,13 @@
     <t>loc.nav-items</t>
   </si>
   <si>
-    <t>css=.wrapper-nav-items a</t>
+    <t>css=nav #main-menu a</t>
   </si>
   <si>
     <t>loc.email-link</t>
   </si>
   <si>
-    <t>css=.wrapper-nav-items a[aria-label='Email']</t>
+    <t>css=header .container a.inbox-link</t>
   </si>
   <si>
     <t>expected.email-link</t>
@@ -2195,9 +2195,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2268,8 +2268,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2288,34 +2302,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2343,24 +2329,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2382,16 +2359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2405,14 +2375,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2439,13 +2439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,67 +2457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2541,7 +2487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2553,19 +2511,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2577,55 +2595,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,21 +2753,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2803,22 +2782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2828,6 +2802,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2846,16 +2829,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2867,132 +2861,132 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3189,16 +3183,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5817,10 +5803,10 @@
   <sheetPr/>
   <dimension ref="A1:O207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -6299,13 +6285,13 @@
       <c r="B18" s="54" t="s">
         <v>654</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="40" t="s">
         <v>655</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -6324,10 +6310,10 @@
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="40" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="25" t="s">
@@ -6351,10 +6337,10 @@
       <c r="B20" s="54" t="s">
         <v>658</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="40" t="s">
         <v>429</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -6375,10 +6361,10 @@
       <c r="B21" s="54" t="s">
         <v>660</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="40" t="s">
         <v>123</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -6404,10 +6390,10 @@
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="40" t="s">
         <v>426</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -9728,7 +9714,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C26 C21" listDataValidation="1"/>
+    <ignoredError sqref="C21 C26" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9738,10 +9724,10 @@
   <sheetPr/>
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19590" windowHeight="12495" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13080" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="709">
   <si>
     <t>target</t>
   </si>
@@ -2162,15 +2162,15 @@
     <t>${actual.email-link}</t>
   </si>
   <si>
+    <t>webmail2</t>
+  </si>
+  <si>
     <t>${webmail2.inbox}@temporary-mail.net</t>
   </si>
   <si>
     <t>Temporary-mail</t>
   </si>
   <si>
-    <t>webmail2</t>
-  </si>
-  <si>
     <t>assert all sent email are found</t>
   </si>
   <si>
@@ -2187,6 +2187,9 @@
   </si>
   <si>
     <t>${delete.max}</t>
+  </si>
+  <si>
+    <t>$(sysdate|now|yyyy-MM)</t>
   </si>
 </sst>
 </file>
@@ -2194,10 +2197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2275,18 +2278,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2313,9 +2309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2329,8 +2332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2344,10 +2348,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2359,9 +2370,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2375,28 +2401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -2404,9 +2408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2439,13 +2442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,7 +2460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2469,13 +2472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,7 +2502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2505,7 +2520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,7 +2544,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2529,97 +2622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2743,15 +2746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2782,6 +2776,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2793,15 +2816,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2829,21 +2843,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2861,132 +2864,132 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3064,6 +3067,18 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5849,14 +5864,14 @@
       <c r="I1" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>611</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="45"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -5872,12 +5887,12 @@
       <c r="I2" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -5889,7 +5904,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -5924,10 +5939,10 @@
       <c r="I4" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="23" t="s">
         <v>623</v>
       </c>
@@ -5963,7 +5978,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -5988,7 +6003,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -5997,13 +6012,13 @@
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="31" t="s">
         <v>382</v>
       </c>
       <c r="E7" s="25" t="s">
@@ -6015,7 +6030,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -6024,11 +6039,11 @@
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="34" t="s">
         <v>139</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -6040,7 +6055,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -6049,11 +6064,11 @@
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="25" t="s">
@@ -6063,7 +6078,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -6072,11 +6087,11 @@
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -6090,7 +6105,7 @@
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="32"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
@@ -6099,11 +6114,11 @@
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="25" t="s">
@@ -6117,7 +6132,7 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
@@ -6126,11 +6141,11 @@
     </row>
     <row r="12" ht="90" spans="1:15">
       <c r="A12" s="18"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="25" t="s">
@@ -6139,12 +6154,12 @@
       <c r="F12" s="25" t="s">
         <v>643</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="35" t="s">
         <v>644</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
@@ -6153,11 +6168,11 @@
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="34" t="s">
         <v>138</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -6169,7 +6184,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="32"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -6178,11 +6193,11 @@
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="38" t="s">
         <v>260</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -6194,7 +6209,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -6203,23 +6218,23 @@
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="18"/>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="56" t="s">
         <v>429</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="56" t="s">
         <v>648</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -6228,14 +6243,14 @@
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="56" t="s">
         <v>649</v>
       </c>
       <c r="F16" s="25" t="s">
@@ -6248,7 +6263,7 @@
         <v>651</v>
       </c>
       <c r="I16" s="25"/>
-      <c r="J16" s="32"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -6257,21 +6272,21 @@
     </row>
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="56" t="s">
         <v>652</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -6282,16 +6297,16 @@
       <c r="A18" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="57" t="s">
         <v>654</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="43" t="s">
         <v>655</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -6300,7 +6315,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -6309,23 +6324,23 @@
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="43" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="56" t="s">
         <v>637</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -6334,23 +6349,23 @@
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="57" t="s">
         <v>658</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="43" t="s">
         <v>429</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="32"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -6358,13 +6373,13 @@
       <c r="O20" s="21"/>
     </row>
     <row r="21" ht="23" customHeight="1" spans="2:15">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="57" t="s">
         <v>660</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -6380,7 +6395,7 @@
         <v>651</v>
       </c>
       <c r="I21" s="25"/>
-      <c r="J21" s="32"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -6389,11 +6404,11 @@
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="43" t="s">
         <v>426</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -6403,7 +6418,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="32"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -6428,7 +6443,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="32"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
@@ -6437,16 +6452,16 @@
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="31" t="s">
         <v>662</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -6455,7 +6470,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="32"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -6464,14 +6479,14 @@
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="18"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="34" t="s">
         <v>636</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -6480,7 +6495,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="32"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -6489,14 +6504,14 @@
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="18"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -6507,7 +6522,7 @@
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="32"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -6516,21 +6531,21 @@
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="18"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="43" t="s">
         <v>426</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="34" t="s">
         <v>664</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -6539,16 +6554,16 @@
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="32" t="s">
         <v>665</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="34" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -6557,7 +6572,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="32"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -6566,14 +6581,14 @@
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="34" t="s">
         <v>668</v>
       </c>
       <c r="F29" s="25" t="s">
@@ -6582,7 +6597,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="32"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -6591,14 +6606,14 @@
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="18"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="34" t="s">
         <v>670</v>
       </c>
       <c r="F30" s="25" t="s">
@@ -6607,7 +6622,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="32"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -6616,14 +6631,14 @@
     </row>
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="18"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="34" t="s">
         <v>642</v>
       </c>
       <c r="F31" s="25" t="s">
@@ -6632,7 +6647,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="32"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -6641,14 +6656,14 @@
     </row>
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="18"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="34" t="s">
         <v>673</v>
       </c>
       <c r="F32" s="25" t="s">
@@ -6657,7 +6672,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="32"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -6666,14 +6681,14 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="18"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="34" t="s">
         <v>675</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -6682,7 +6697,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="32"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -6691,14 +6706,14 @@
     </row>
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="18"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="34" t="s">
         <v>677</v>
       </c>
       <c r="F34" s="25" t="s">
@@ -6707,7 +6722,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="32"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -6716,16 +6731,16 @@
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="18"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="44" t="s">
         <v>678</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="34" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -6734,7 +6749,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="32"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -6743,14 +6758,14 @@
     </row>
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="18"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="38" t="s">
         <v>631</v>
       </c>
       <c r="F36" s="25" t="s">
@@ -6759,7 +6774,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="32"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -6776,7 +6791,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="32"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -6793,7 +6808,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="32"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -6810,7 +6825,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -6827,7 +6842,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="32"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -6844,7 +6859,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="32"/>
+      <c r="J41" s="35"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -6861,7 +6876,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="32"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -6878,7 +6893,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -6895,7 +6910,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -6912,7 +6927,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="32"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -6929,7 +6944,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -6946,7 +6961,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="32"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -6963,7 +6978,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="32"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -6980,7 +6995,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="32"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -6997,7 +7012,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="32"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -7014,7 +7029,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="32"/>
+      <c r="J51" s="35"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -7031,7 +7046,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="32"/>
+      <c r="J52" s="35"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -7048,7 +7063,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="32"/>
+      <c r="J53" s="35"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -7065,7 +7080,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="35"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -7082,7 +7097,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="32"/>
+      <c r="J55" s="35"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -7099,7 +7114,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="32"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -7116,7 +7131,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="32"/>
+      <c r="J57" s="35"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -7133,7 +7148,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="32"/>
+      <c r="J58" s="35"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -7150,7 +7165,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="32"/>
+      <c r="J59" s="35"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -7167,7 +7182,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="32"/>
+      <c r="J60" s="35"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -7184,7 +7199,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="32"/>
+      <c r="J61" s="35"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -7201,7 +7216,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="32"/>
+      <c r="J62" s="35"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -7218,7 +7233,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="32"/>
+      <c r="J63" s="35"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -7235,7 +7250,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="32"/>
+      <c r="J64" s="35"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -7252,7 +7267,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="32"/>
+      <c r="J65" s="35"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -7269,7 +7284,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="32"/>
+      <c r="J66" s="35"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -7286,7 +7301,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="32"/>
+      <c r="J67" s="35"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -7303,7 +7318,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="32"/>
+      <c r="J68" s="35"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -7320,7 +7335,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="32"/>
+      <c r="J69" s="35"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -7337,7 +7352,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="32"/>
+      <c r="J70" s="35"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -7354,7 +7369,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="32"/>
+      <c r="J71" s="35"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -7371,7 +7386,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="32"/>
+      <c r="J72" s="35"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -7388,7 +7403,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="32"/>
+      <c r="J73" s="35"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -7405,7 +7420,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="32"/>
+      <c r="J74" s="35"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -7422,7 +7437,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="32"/>
+      <c r="J75" s="35"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -7439,7 +7454,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="32"/>
+      <c r="J76" s="35"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -7456,7 +7471,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="32"/>
+      <c r="J77" s="35"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -7473,7 +7488,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="32"/>
+      <c r="J78" s="35"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -7490,7 +7505,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="32"/>
+      <c r="J79" s="35"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -7507,7 +7522,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="32"/>
+      <c r="J80" s="35"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -7524,7 +7539,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="32"/>
+      <c r="J81" s="35"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -7541,7 +7556,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="32"/>
+      <c r="J82" s="35"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -7558,7 +7573,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="32"/>
+      <c r="J83" s="35"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -7575,7 +7590,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="32"/>
+      <c r="J84" s="35"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -7592,7 +7607,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="32"/>
+      <c r="J85" s="35"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -7609,7 +7624,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="32"/>
+      <c r="J86" s="35"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -7626,7 +7641,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="32"/>
+      <c r="J87" s="35"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -7643,7 +7658,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="32"/>
+      <c r="J88" s="35"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -7660,7 +7675,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="32"/>
+      <c r="J89" s="35"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -7677,7 +7692,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="32"/>
+      <c r="J90" s="35"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -7694,7 +7709,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="32"/>
+      <c r="J91" s="35"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -7711,7 +7726,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="32"/>
+      <c r="J92" s="35"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -7728,7 +7743,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="32"/>
+      <c r="J93" s="35"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -7745,7 +7760,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="32"/>
+      <c r="J94" s="35"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -7762,7 +7777,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="32"/>
+      <c r="J95" s="35"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -7779,7 +7794,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="32"/>
+      <c r="J96" s="35"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -7796,7 +7811,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="32"/>
+      <c r="J97" s="35"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -7813,7 +7828,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="32"/>
+      <c r="J98" s="35"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -7830,7 +7845,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="32"/>
+      <c r="J99" s="35"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -7847,7 +7862,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="32"/>
+      <c r="J100" s="35"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -7864,7 +7879,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="32"/>
+      <c r="J101" s="35"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -7881,7 +7896,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="32"/>
+      <c r="J102" s="35"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -7898,7 +7913,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="32"/>
+      <c r="J103" s="35"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -7915,7 +7930,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="32"/>
+      <c r="J104" s="35"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -7932,7 +7947,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="32"/>
+      <c r="J105" s="35"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -7949,7 +7964,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="32"/>
+      <c r="J106" s="35"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -7966,7 +7981,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="32"/>
+      <c r="J107" s="35"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -7983,7 +7998,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="32"/>
+      <c r="J108" s="35"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -8000,7 +8015,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="32"/>
+      <c r="J109" s="35"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -8017,7 +8032,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="32"/>
+      <c r="J110" s="35"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -8034,7 +8049,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="32"/>
+      <c r="J111" s="35"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -8051,7 +8066,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="32"/>
+      <c r="J112" s="35"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -8068,7 +8083,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="32"/>
+      <c r="J113" s="35"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -8085,7 +8100,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="32"/>
+      <c r="J114" s="35"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -8102,7 +8117,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="32"/>
+      <c r="J115" s="35"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -8119,7 +8134,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="32"/>
+      <c r="J116" s="35"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -8136,7 +8151,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="32"/>
+      <c r="J117" s="35"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -8153,7 +8168,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="32"/>
+      <c r="J118" s="35"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -8170,7 +8185,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="32"/>
+      <c r="J119" s="35"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -8187,7 +8202,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="32"/>
+      <c r="J120" s="35"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -8204,7 +8219,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="32"/>
+      <c r="J121" s="35"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -8221,7 +8236,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="32"/>
+      <c r="J122" s="35"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -8238,7 +8253,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="32"/>
+      <c r="J123" s="35"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -8255,7 +8270,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="32"/>
+      <c r="J124" s="35"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -8272,7 +8287,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="32"/>
+      <c r="J125" s="35"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -8289,7 +8304,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="32"/>
+      <c r="J126" s="35"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -8306,7 +8321,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="32"/>
+      <c r="J127" s="35"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -8323,7 +8338,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="32"/>
+      <c r="J128" s="35"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -8340,7 +8355,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="32"/>
+      <c r="J129" s="35"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -8357,7 +8372,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="32"/>
+      <c r="J130" s="35"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -8374,7 +8389,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="32"/>
+      <c r="J131" s="35"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -8391,7 +8406,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="32"/>
+      <c r="J132" s="35"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -8408,7 +8423,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="32"/>
+      <c r="J133" s="35"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -8425,7 +8440,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="32"/>
+      <c r="J134" s="35"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -8442,7 +8457,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="32"/>
+      <c r="J135" s="35"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -8459,7 +8474,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="32"/>
+      <c r="J136" s="35"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -8476,7 +8491,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="32"/>
+      <c r="J137" s="35"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -8493,7 +8508,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="32"/>
+      <c r="J138" s="35"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -8510,7 +8525,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="32"/>
+      <c r="J139" s="35"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -8527,7 +8542,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="32"/>
+      <c r="J140" s="35"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -8544,7 +8559,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="32"/>
+      <c r="J141" s="35"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -8561,7 +8576,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="32"/>
+      <c r="J142" s="35"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -8578,7 +8593,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="32"/>
+      <c r="J143" s="35"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -8595,7 +8610,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="32"/>
+      <c r="J144" s="35"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -8612,7 +8627,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="32"/>
+      <c r="J145" s="35"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -8629,7 +8644,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="32"/>
+      <c r="J146" s="35"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -8646,7 +8661,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="32"/>
+      <c r="J147" s="35"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -8663,7 +8678,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="32"/>
+      <c r="J148" s="35"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -8680,7 +8695,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="32"/>
+      <c r="J149" s="35"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -8697,7 +8712,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="32"/>
+      <c r="J150" s="35"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -8714,7 +8729,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="32"/>
+      <c r="J151" s="35"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -8731,7 +8746,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="32"/>
+      <c r="J152" s="35"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -8748,7 +8763,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="32"/>
+      <c r="J153" s="35"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -8765,7 +8780,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="32"/>
+      <c r="J154" s="35"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -8782,7 +8797,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="32"/>
+      <c r="J155" s="35"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -8799,7 +8814,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="32"/>
+      <c r="J156" s="35"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -8816,7 +8831,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="32"/>
+      <c r="J157" s="35"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -8833,7 +8848,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="32"/>
+      <c r="J158" s="35"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -8850,7 +8865,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="32"/>
+      <c r="J159" s="35"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -8867,7 +8882,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="32"/>
+      <c r="J160" s="35"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -8884,7 +8899,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="32"/>
+      <c r="J161" s="35"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -8901,7 +8916,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="32"/>
+      <c r="J162" s="35"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -8918,7 +8933,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="32"/>
+      <c r="J163" s="35"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -8935,7 +8950,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="32"/>
+      <c r="J164" s="35"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -8952,7 +8967,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="32"/>
+      <c r="J165" s="35"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -8969,7 +8984,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="32"/>
+      <c r="J166" s="35"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -8986,7 +9001,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="32"/>
+      <c r="J167" s="35"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -9003,7 +9018,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="32"/>
+      <c r="J168" s="35"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -9020,7 +9035,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="32"/>
+      <c r="J169" s="35"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -9037,7 +9052,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="32"/>
+      <c r="J170" s="35"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -9054,7 +9069,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="32"/>
+      <c r="J171" s="35"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -9071,7 +9086,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="32"/>
+      <c r="J172" s="35"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -9088,7 +9103,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="32"/>
+      <c r="J173" s="35"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -9105,7 +9120,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="32"/>
+      <c r="J174" s="35"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -9122,7 +9137,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="32"/>
+      <c r="J175" s="35"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -9139,7 +9154,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="32"/>
+      <c r="J176" s="35"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -9156,7 +9171,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="32"/>
+      <c r="J177" s="35"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -9173,7 +9188,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="32"/>
+      <c r="J178" s="35"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -9190,7 +9205,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
-      <c r="J179" s="32"/>
+      <c r="J179" s="35"/>
       <c r="K179" s="21"/>
       <c r="L179" s="22"/>
       <c r="M179" s="20"/>
@@ -9207,7 +9222,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
-      <c r="J180" s="32"/>
+      <c r="J180" s="35"/>
       <c r="K180" s="21"/>
       <c r="L180" s="22"/>
       <c r="M180" s="20"/>
@@ -9224,7 +9239,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
-      <c r="J181" s="32"/>
+      <c r="J181" s="35"/>
       <c r="K181" s="21"/>
       <c r="L181" s="22"/>
       <c r="M181" s="20"/>
@@ -9241,7 +9256,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
-      <c r="J182" s="32"/>
+      <c r="J182" s="35"/>
       <c r="K182" s="21"/>
       <c r="L182" s="22"/>
       <c r="M182" s="20"/>
@@ -9258,7 +9273,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
-      <c r="J183" s="32"/>
+      <c r="J183" s="35"/>
       <c r="K183" s="21"/>
       <c r="L183" s="22"/>
       <c r="M183" s="20"/>
@@ -9275,7 +9290,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
-      <c r="J184" s="32"/>
+      <c r="J184" s="35"/>
       <c r="K184" s="21"/>
       <c r="L184" s="22"/>
       <c r="M184" s="20"/>
@@ -9292,7 +9307,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
-      <c r="J185" s="32"/>
+      <c r="J185" s="35"/>
       <c r="K185" s="21"/>
       <c r="L185" s="22"/>
       <c r="M185" s="20"/>
@@ -9309,7 +9324,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
-      <c r="J186" s="32"/>
+      <c r="J186" s="35"/>
       <c r="K186" s="21"/>
       <c r="L186" s="22"/>
       <c r="M186" s="20"/>
@@ -9326,7 +9341,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
-      <c r="J187" s="32"/>
+      <c r="J187" s="35"/>
       <c r="K187" s="21"/>
       <c r="L187" s="22"/>
       <c r="M187" s="20"/>
@@ -9343,7 +9358,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
-      <c r="J188" s="32"/>
+      <c r="J188" s="35"/>
       <c r="K188" s="21"/>
       <c r="L188" s="22"/>
       <c r="M188" s="20"/>
@@ -9360,7 +9375,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
-      <c r="J189" s="32"/>
+      <c r="J189" s="35"/>
       <c r="K189" s="21"/>
       <c r="L189" s="22"/>
       <c r="M189" s="20"/>
@@ -9377,7 +9392,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
-      <c r="J190" s="32"/>
+      <c r="J190" s="35"/>
       <c r="K190" s="21"/>
       <c r="L190" s="22"/>
       <c r="M190" s="20"/>
@@ -9394,7 +9409,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
-      <c r="J191" s="32"/>
+      <c r="J191" s="35"/>
       <c r="K191" s="21"/>
       <c r="L191" s="22"/>
       <c r="M191" s="20"/>
@@ -9411,7 +9426,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
-      <c r="J192" s="32"/>
+      <c r="J192" s="35"/>
       <c r="K192" s="21"/>
       <c r="L192" s="22"/>
       <c r="M192" s="20"/>
@@ -9428,7 +9443,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
-      <c r="J193" s="32"/>
+      <c r="J193" s="35"/>
       <c r="K193" s="21"/>
       <c r="L193" s="22"/>
       <c r="M193" s="20"/>
@@ -9445,7 +9460,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
-      <c r="J194" s="32"/>
+      <c r="J194" s="35"/>
       <c r="K194" s="21"/>
       <c r="L194" s="22"/>
       <c r="M194" s="20"/>
@@ -9462,7 +9477,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
-      <c r="J195" s="32"/>
+      <c r="J195" s="35"/>
       <c r="K195" s="21"/>
       <c r="L195" s="22"/>
       <c r="M195" s="20"/>
@@ -9479,7 +9494,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
-      <c r="J196" s="32"/>
+      <c r="J196" s="35"/>
       <c r="K196" s="21"/>
       <c r="L196" s="22"/>
       <c r="M196" s="20"/>
@@ -9496,7 +9511,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
-      <c r="J197" s="32"/>
+      <c r="J197" s="35"/>
       <c r="K197" s="21"/>
       <c r="L197" s="22"/>
       <c r="M197" s="20"/>
@@ -9513,7 +9528,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
-      <c r="J198" s="32"/>
+      <c r="J198" s="35"/>
       <c r="K198" s="21"/>
       <c r="L198" s="22"/>
       <c r="M198" s="20"/>
@@ -9530,7 +9545,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
-      <c r="J199" s="32"/>
+      <c r="J199" s="35"/>
       <c r="K199" s="21"/>
       <c r="L199" s="22"/>
       <c r="M199" s="20"/>
@@ -9547,7 +9562,7 @@
       <c r="G200" s="25"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
-      <c r="J200" s="32"/>
+      <c r="J200" s="35"/>
       <c r="K200" s="21"/>
       <c r="L200" s="22"/>
       <c r="M200" s="20"/>
@@ -9564,7 +9579,7 @@
       <c r="G201" s="25"/>
       <c r="H201" s="25"/>
       <c r="I201" s="25"/>
-      <c r="J201" s="32"/>
+      <c r="J201" s="35"/>
       <c r="K201" s="21"/>
       <c r="L201" s="22"/>
       <c r="M201" s="20"/>
@@ -9581,7 +9596,7 @@
       <c r="G202" s="25"/>
       <c r="H202" s="25"/>
       <c r="I202" s="25"/>
-      <c r="J202" s="32"/>
+      <c r="J202" s="35"/>
       <c r="K202" s="21"/>
       <c r="L202" s="22"/>
       <c r="M202" s="20"/>
@@ -9598,7 +9613,7 @@
       <c r="G203" s="25"/>
       <c r="H203" s="25"/>
       <c r="I203" s="25"/>
-      <c r="J203" s="32"/>
+      <c r="J203" s="35"/>
       <c r="K203" s="21"/>
       <c r="L203" s="22"/>
       <c r="M203" s="20"/>
@@ -9615,7 +9630,7 @@
       <c r="G204" s="25"/>
       <c r="H204" s="25"/>
       <c r="I204" s="25"/>
-      <c r="J204" s="32"/>
+      <c r="J204" s="35"/>
       <c r="K204" s="21"/>
       <c r="L204" s="22"/>
       <c r="M204" s="20"/>
@@ -9632,7 +9647,7 @@
       <c r="G205" s="25"/>
       <c r="H205" s="25"/>
       <c r="I205" s="25"/>
-      <c r="J205" s="32"/>
+      <c r="J205" s="35"/>
       <c r="K205" s="21"/>
       <c r="L205" s="22"/>
       <c r="M205" s="20"/>
@@ -9649,7 +9664,7 @@
       <c r="G206" s="25"/>
       <c r="H206" s="25"/>
       <c r="I206" s="25"/>
-      <c r="J206" s="32"/>
+      <c r="J206" s="35"/>
       <c r="K206" s="21"/>
       <c r="L206" s="22"/>
       <c r="M206" s="20"/>
@@ -9666,7 +9681,7 @@
       <c r="G207" s="25"/>
       <c r="H207" s="25"/>
       <c r="I207" s="25"/>
-      <c r="J207" s="32"/>
+      <c r="J207" s="35"/>
       <c r="K207" s="21"/>
       <c r="L207" s="22"/>
       <c r="M207" s="20"/>
@@ -9714,7 +9729,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C21 C26" listDataValidation="1"/>
+    <ignoredError sqref="C26 C21" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9724,7 +9739,7 @@
   <sheetPr/>
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
@@ -9769,14 +9784,14 @@
       <c r="I1" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>611</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="45"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -9792,12 +9807,12 @@
       <c r="I2" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -9809,7 +9824,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -9844,10 +9859,10 @@
       <c r="I4" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="23" t="s">
         <v>623</v>
       </c>
@@ -9881,7 +9896,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -9906,7 +9921,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -9931,7 +9946,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -9956,7 +9971,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -9981,7 +9996,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -10006,7 +10021,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="32"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
@@ -10031,7 +10046,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
@@ -10056,7 +10071,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
@@ -10083,7 +10098,7 @@
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="32"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -10110,7 +10125,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -10131,7 +10146,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -10148,7 +10163,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="32"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -10165,7 +10180,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -10182,7 +10197,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -10199,7 +10214,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -10216,7 +10231,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="32"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -10233,7 +10248,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="32"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -10250,7 +10265,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="32"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -10267,7 +10282,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="32"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
@@ -10284,7 +10299,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="32"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -10301,7 +10316,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="32"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -10318,7 +10333,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="32"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -10335,7 +10350,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -10352,7 +10367,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="32"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -10369,7 +10384,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="32"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -10386,7 +10401,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="32"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -10403,7 +10418,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="32"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -10420,7 +10435,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="32"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -10437,7 +10452,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="32"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -10454,7 +10469,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="32"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -10471,7 +10486,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="32"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -10488,7 +10503,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="32"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -10505,7 +10520,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="32"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -10522,7 +10537,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="32"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -10539,7 +10554,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -10556,7 +10571,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="32"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -10573,7 +10588,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="32"/>
+      <c r="J41" s="35"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -10590,7 +10605,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="32"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -10607,7 +10622,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -10624,7 +10639,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -10641,7 +10656,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="32"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -10658,7 +10673,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -10675,7 +10690,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="32"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -10692,7 +10707,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="32"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -10709,7 +10724,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="32"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -10726,7 +10741,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="32"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -10743,7 +10758,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="32"/>
+      <c r="J51" s="35"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -10760,7 +10775,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="32"/>
+      <c r="J52" s="35"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -10777,7 +10792,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="32"/>
+      <c r="J53" s="35"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -10794,7 +10809,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="35"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -10811,7 +10826,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="32"/>
+      <c r="J55" s="35"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -10828,7 +10843,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="32"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -10845,7 +10860,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="32"/>
+      <c r="J57" s="35"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -10862,7 +10877,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="32"/>
+      <c r="J58" s="35"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -10879,7 +10894,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="32"/>
+      <c r="J59" s="35"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -10896,7 +10911,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="32"/>
+      <c r="J60" s="35"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -10913,7 +10928,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="32"/>
+      <c r="J61" s="35"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -10930,7 +10945,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="32"/>
+      <c r="J62" s="35"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -10947,7 +10962,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="32"/>
+      <c r="J63" s="35"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -10964,7 +10979,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="32"/>
+      <c r="J64" s="35"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -10981,7 +10996,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="32"/>
+      <c r="J65" s="35"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -10998,7 +11013,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="32"/>
+      <c r="J66" s="35"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -11015,7 +11030,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="32"/>
+      <c r="J67" s="35"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -11032,7 +11047,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="32"/>
+      <c r="J68" s="35"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -11049,7 +11064,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="32"/>
+      <c r="J69" s="35"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -11066,7 +11081,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="32"/>
+      <c r="J70" s="35"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -11083,7 +11098,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="32"/>
+      <c r="J71" s="35"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -11100,7 +11115,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="32"/>
+      <c r="J72" s="35"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -11117,7 +11132,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="32"/>
+      <c r="J73" s="35"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -11134,7 +11149,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="32"/>
+      <c r="J74" s="35"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -11151,7 +11166,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="32"/>
+      <c r="J75" s="35"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -11168,7 +11183,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="32"/>
+      <c r="J76" s="35"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -11185,7 +11200,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="32"/>
+      <c r="J77" s="35"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -11202,7 +11217,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="32"/>
+      <c r="J78" s="35"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -11219,7 +11234,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="32"/>
+      <c r="J79" s="35"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -11236,7 +11251,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="32"/>
+      <c r="J80" s="35"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -11253,7 +11268,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="32"/>
+      <c r="J81" s="35"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -11270,7 +11285,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="32"/>
+      <c r="J82" s="35"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -11287,7 +11302,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="32"/>
+      <c r="J83" s="35"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -11304,7 +11319,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="32"/>
+      <c r="J84" s="35"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -11321,7 +11336,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="32"/>
+      <c r="J85" s="35"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -11338,7 +11353,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="32"/>
+      <c r="J86" s="35"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -11355,7 +11370,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="32"/>
+      <c r="J87" s="35"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -11372,7 +11387,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="32"/>
+      <c r="J88" s="35"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -11389,7 +11404,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="32"/>
+      <c r="J89" s="35"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -11406,7 +11421,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="32"/>
+      <c r="J90" s="35"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -11423,7 +11438,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="32"/>
+      <c r="J91" s="35"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -11440,7 +11455,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="32"/>
+      <c r="J92" s="35"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -11457,7 +11472,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="32"/>
+      <c r="J93" s="35"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -11474,7 +11489,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="32"/>
+      <c r="J94" s="35"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -11491,7 +11506,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="32"/>
+      <c r="J95" s="35"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -11508,7 +11523,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="32"/>
+      <c r="J96" s="35"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -11525,7 +11540,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="32"/>
+      <c r="J97" s="35"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -11542,7 +11557,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="32"/>
+      <c r="J98" s="35"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -11559,7 +11574,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="32"/>
+      <c r="J99" s="35"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -11576,7 +11591,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="32"/>
+      <c r="J100" s="35"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -11593,7 +11608,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="32"/>
+      <c r="J101" s="35"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -11610,7 +11625,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="32"/>
+      <c r="J102" s="35"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -11627,7 +11642,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="32"/>
+      <c r="J103" s="35"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -11644,7 +11659,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="32"/>
+      <c r="J104" s="35"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -11661,7 +11676,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="32"/>
+      <c r="J105" s="35"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -11678,7 +11693,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="32"/>
+      <c r="J106" s="35"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -11695,7 +11710,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="32"/>
+      <c r="J107" s="35"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -11712,7 +11727,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="32"/>
+      <c r="J108" s="35"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -11729,7 +11744,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="32"/>
+      <c r="J109" s="35"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -11746,7 +11761,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="32"/>
+      <c r="J110" s="35"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -11763,7 +11778,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="32"/>
+      <c r="J111" s="35"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -11780,7 +11795,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="32"/>
+      <c r="J112" s="35"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -11797,7 +11812,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="32"/>
+      <c r="J113" s="35"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -11814,7 +11829,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="32"/>
+      <c r="J114" s="35"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -11831,7 +11846,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="32"/>
+      <c r="J115" s="35"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -11848,7 +11863,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="32"/>
+      <c r="J116" s="35"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -11865,7 +11880,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="32"/>
+      <c r="J117" s="35"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -11882,7 +11897,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="32"/>
+      <c r="J118" s="35"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -11899,7 +11914,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="32"/>
+      <c r="J119" s="35"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -11916,7 +11931,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="32"/>
+      <c r="J120" s="35"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -11933,7 +11948,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="32"/>
+      <c r="J121" s="35"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -11950,7 +11965,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="32"/>
+      <c r="J122" s="35"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -11967,7 +11982,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="32"/>
+      <c r="J123" s="35"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -11984,7 +11999,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="32"/>
+      <c r="J124" s="35"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -12001,7 +12016,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="32"/>
+      <c r="J125" s="35"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -12018,7 +12033,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="32"/>
+      <c r="J126" s="35"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -12035,7 +12050,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="32"/>
+      <c r="J127" s="35"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -12052,7 +12067,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="32"/>
+      <c r="J128" s="35"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -12069,7 +12084,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="32"/>
+      <c r="J129" s="35"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -12086,7 +12101,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="32"/>
+      <c r="J130" s="35"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -12103,7 +12118,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="32"/>
+      <c r="J131" s="35"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -12120,7 +12135,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="32"/>
+      <c r="J132" s="35"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -12137,7 +12152,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="32"/>
+      <c r="J133" s="35"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -12154,7 +12169,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="32"/>
+      <c r="J134" s="35"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -12171,7 +12186,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="32"/>
+      <c r="J135" s="35"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -12188,7 +12203,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="32"/>
+      <c r="J136" s="35"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -12205,7 +12220,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="32"/>
+      <c r="J137" s="35"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -12222,7 +12237,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="32"/>
+      <c r="J138" s="35"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -12239,7 +12254,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="32"/>
+      <c r="J139" s="35"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -12256,7 +12271,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="32"/>
+      <c r="J140" s="35"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -12273,7 +12288,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="32"/>
+      <c r="J141" s="35"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -12290,7 +12305,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="32"/>
+      <c r="J142" s="35"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -12307,7 +12322,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="32"/>
+      <c r="J143" s="35"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -12324,7 +12339,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="32"/>
+      <c r="J144" s="35"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -12341,7 +12356,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="32"/>
+      <c r="J145" s="35"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -12358,7 +12373,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="32"/>
+      <c r="J146" s="35"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -12375,7 +12390,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="32"/>
+      <c r="J147" s="35"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -12392,7 +12407,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="32"/>
+      <c r="J148" s="35"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -12409,7 +12424,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="32"/>
+      <c r="J149" s="35"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -12426,7 +12441,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="32"/>
+      <c r="J150" s="35"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -12443,7 +12458,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="32"/>
+      <c r="J151" s="35"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -12460,7 +12475,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="32"/>
+      <c r="J152" s="35"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -12477,7 +12492,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="32"/>
+      <c r="J153" s="35"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -12494,7 +12509,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="32"/>
+      <c r="J154" s="35"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -12511,7 +12526,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="32"/>
+      <c r="J155" s="35"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -12528,7 +12543,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="32"/>
+      <c r="J156" s="35"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -12545,7 +12560,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="32"/>
+      <c r="J157" s="35"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -12562,7 +12577,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="32"/>
+      <c r="J158" s="35"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -12579,7 +12594,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="32"/>
+      <c r="J159" s="35"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -12596,7 +12611,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="32"/>
+      <c r="J160" s="35"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -12613,7 +12628,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="32"/>
+      <c r="J161" s="35"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -12630,7 +12645,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="32"/>
+      <c r="J162" s="35"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -12647,7 +12662,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="32"/>
+      <c r="J163" s="35"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -12664,7 +12679,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="32"/>
+      <c r="J164" s="35"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -12681,7 +12696,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="32"/>
+      <c r="J165" s="35"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -12698,7 +12713,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="32"/>
+      <c r="J166" s="35"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -12715,7 +12730,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="32"/>
+      <c r="J167" s="35"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -12732,7 +12747,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="32"/>
+      <c r="J168" s="35"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -12749,7 +12764,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="32"/>
+      <c r="J169" s="35"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -12766,7 +12781,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="32"/>
+      <c r="J170" s="35"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -12783,7 +12798,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="32"/>
+      <c r="J171" s="35"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -12800,7 +12815,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="32"/>
+      <c r="J172" s="35"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -12817,7 +12832,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="32"/>
+      <c r="J173" s="35"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -12834,7 +12849,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="32"/>
+      <c r="J174" s="35"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -12851,7 +12866,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="32"/>
+      <c r="J175" s="35"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -12868,7 +12883,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="32"/>
+      <c r="J176" s="35"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -12885,7 +12900,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="32"/>
+      <c r="J177" s="35"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -12902,7 +12917,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="32"/>
+      <c r="J178" s="35"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -12955,12 +12970,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -13003,14 +13018,14 @@
       <c r="I1" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>611</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="45"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -13026,12 +13041,12 @@
       <c r="I2" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -13043,7 +13058,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -13078,10 +13093,10 @@
       <c r="I4" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="23" t="s">
         <v>623</v>
       </c>
@@ -13115,7 +13130,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -13124,25 +13139,27 @@
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="18"/>
-      <c r="B6" s="26" t="s">
-        <v>633</v>
-      </c>
+      <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>382</v>
+        <v>123</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>635</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+        <v>699</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>632</v>
+      </c>
       <c r="I6" s="25"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -13151,23 +13168,25 @@
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="29" t="s">
+        <v>633</v>
+      </c>
       <c r="C7" s="30" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -13176,21 +13195,23 @@
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>49</v>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="F8" s="25"/>
+        <v>636</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>637</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -13199,25 +13220,21 @@
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>81</v>
+      <c r="D9" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>640</v>
-      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -13226,77 +13243,79 @@
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>638</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>699</v>
+        <v>640</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="32"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="90" spans="1:15">
+    <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>638</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>700</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row r="12" ht="90" spans="1:15">
       <c r="A12" s="18"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>138</v>
+      <c r="D12" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="G12" s="25"/>
+        <v>643</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>644</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
@@ -13305,23 +13324,23 @@
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>260</v>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="32"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -13329,32 +13348,24 @@
       <c r="O13" s="21"/>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="18" t="s">
-        <v>700</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>123</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>701</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>651</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -13362,22 +13373,32 @@
       <c r="O14" s="21"/>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>660</v>
+      </c>
       <c r="C15" s="24" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>426</v>
+        <v>123</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>652</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+        <v>649</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>699</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>651</v>
+      </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -13386,25 +13407,21 @@
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>139</v>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>426</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="32"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -13414,24 +13431,24 @@
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>386</v>
+        <v>702</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -13440,7 +13457,9 @@
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>703</v>
+      </c>
       <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
@@ -13448,15 +13467,15 @@
         <v>386</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -13465,25 +13484,23 @@
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
-      <c r="B19" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>706</v>
+      <c r="D19" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>631</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -13492,23 +13509,25 @@
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>661</v>
+      </c>
       <c r="C20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>139</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>382</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>707</v>
+        <v>635</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="32"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -13517,25 +13536,23 @@
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="18"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>701</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>663</v>
-      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="32"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -13544,23 +13561,25 @@
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
-      <c r="B22" s="29" t="s">
-        <v>665</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>699</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>663</v>
+      </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="32"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -13569,23 +13588,23 @@
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>669</v>
-      </c>
+      <c r="D23" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="32"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
@@ -13594,23 +13613,23 @@
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="18"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>670</v>
+      <c r="D24" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>668</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="32"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -13619,23 +13638,23 @@
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="18"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>699</v>
+      <c r="E25" s="34" t="s">
+        <v>670</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="32"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -13644,23 +13663,23 @@
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="18"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>673</v>
+      <c r="D26" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>700</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="32"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -13669,23 +13688,23 @@
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="18"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>675</v>
+      <c r="E27" s="34" t="s">
+        <v>673</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -13694,25 +13713,23 @@
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
-      <c r="B28" s="41" t="s">
-        <v>678</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>701</v>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>675</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="32"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -13721,23 +13738,25 @@
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34" t="s">
-        <v>17</v>
+      <c r="B29" s="44" t="s">
+        <v>678</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>631</v>
+        <v>62</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>699</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="32"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -13746,15 +13765,23 @@
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>646</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="32"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -13771,7 +13798,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="32"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -13788,7 +13815,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="32"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -13805,7 +13832,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="32"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -13822,7 +13849,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="32"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -13839,7 +13866,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="32"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -13856,7 +13883,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="32"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -13873,7 +13900,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="32"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -13890,7 +13917,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="32"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -13907,7 +13934,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -13924,7 +13951,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="32"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -13941,7 +13968,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="32"/>
+      <c r="J41" s="35"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -13958,7 +13985,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="32"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -13975,7 +14002,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -13992,7 +14019,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -14009,7 +14036,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="32"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -14026,7 +14053,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -14043,7 +14070,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="32"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -14060,7 +14087,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="32"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -14077,7 +14104,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="32"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -14094,7 +14121,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="32"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -14111,7 +14138,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="32"/>
+      <c r="J51" s="35"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -14128,7 +14155,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="32"/>
+      <c r="J52" s="35"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -14145,7 +14172,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="32"/>
+      <c r="J53" s="35"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -14162,7 +14189,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="35"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -14179,7 +14206,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="32"/>
+      <c r="J55" s="35"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -14196,7 +14223,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="32"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -14213,7 +14240,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="32"/>
+      <c r="J57" s="35"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -14230,7 +14257,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="32"/>
+      <c r="J58" s="35"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -14247,7 +14274,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="32"/>
+      <c r="J59" s="35"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -14264,7 +14291,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="32"/>
+      <c r="J60" s="35"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -14281,7 +14308,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="32"/>
+      <c r="J61" s="35"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -14298,7 +14325,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="32"/>
+      <c r="J62" s="35"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -14315,7 +14342,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="32"/>
+      <c r="J63" s="35"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -14332,7 +14359,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="32"/>
+      <c r="J64" s="35"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -14349,7 +14376,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="32"/>
+      <c r="J65" s="35"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -14366,7 +14393,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="32"/>
+      <c r="J66" s="35"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -14383,7 +14410,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="32"/>
+      <c r="J67" s="35"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -14400,7 +14427,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="32"/>
+      <c r="J68" s="35"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -14417,7 +14444,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="32"/>
+      <c r="J69" s="35"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -14434,7 +14461,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="32"/>
+      <c r="J70" s="35"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -14451,7 +14478,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="32"/>
+      <c r="J71" s="35"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -14468,7 +14495,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="32"/>
+      <c r="J72" s="35"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -14485,7 +14512,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="32"/>
+      <c r="J73" s="35"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -14502,7 +14529,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="32"/>
+      <c r="J74" s="35"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -14519,7 +14546,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="32"/>
+      <c r="J75" s="35"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -14536,7 +14563,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="32"/>
+      <c r="J76" s="35"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -14553,7 +14580,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="32"/>
+      <c r="J77" s="35"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -14570,7 +14597,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="32"/>
+      <c r="J78" s="35"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -14587,7 +14614,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="32"/>
+      <c r="J79" s="35"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -14604,7 +14631,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="32"/>
+      <c r="J80" s="35"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -14621,7 +14648,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="32"/>
+      <c r="J81" s="35"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -14638,7 +14665,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="32"/>
+      <c r="J82" s="35"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -14655,7 +14682,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="32"/>
+      <c r="J83" s="35"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -14672,7 +14699,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="32"/>
+      <c r="J84" s="35"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -14689,7 +14716,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="32"/>
+      <c r="J85" s="35"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -14706,7 +14733,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="32"/>
+      <c r="J86" s="35"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -14723,7 +14750,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="32"/>
+      <c r="J87" s="35"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -14740,7 +14767,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="32"/>
+      <c r="J88" s="35"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -14757,7 +14784,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="32"/>
+      <c r="J89" s="35"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -14774,7 +14801,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="32"/>
+      <c r="J90" s="35"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -14791,7 +14818,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="32"/>
+      <c r="J91" s="35"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -14808,7 +14835,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="32"/>
+      <c r="J92" s="35"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -14825,7 +14852,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="32"/>
+      <c r="J93" s="35"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -14842,7 +14869,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="32"/>
+      <c r="J94" s="35"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -14859,7 +14886,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="32"/>
+      <c r="J95" s="35"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -14876,7 +14903,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="32"/>
+      <c r="J96" s="35"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -14893,7 +14920,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="32"/>
+      <c r="J97" s="35"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -14910,7 +14937,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="32"/>
+      <c r="J98" s="35"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -14927,7 +14954,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="32"/>
+      <c r="J99" s="35"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -14944,7 +14971,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="32"/>
+      <c r="J100" s="35"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -14961,7 +14988,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="32"/>
+      <c r="J101" s="35"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -14978,7 +15005,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="32"/>
+      <c r="J102" s="35"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -14995,7 +15022,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="32"/>
+      <c r="J103" s="35"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -15012,7 +15039,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="32"/>
+      <c r="J104" s="35"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -15029,7 +15056,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="32"/>
+      <c r="J105" s="35"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -15046,7 +15073,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="32"/>
+      <c r="J106" s="35"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -15063,7 +15090,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="32"/>
+      <c r="J107" s="35"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -15080,7 +15107,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="32"/>
+      <c r="J108" s="35"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -15097,7 +15124,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="32"/>
+      <c r="J109" s="35"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -15114,7 +15141,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="32"/>
+      <c r="J110" s="35"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -15131,7 +15158,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="32"/>
+      <c r="J111" s="35"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -15148,7 +15175,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="32"/>
+      <c r="J112" s="35"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -15165,7 +15192,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="32"/>
+      <c r="J113" s="35"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -15182,7 +15209,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="32"/>
+      <c r="J114" s="35"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -15199,7 +15226,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="32"/>
+      <c r="J115" s="35"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -15216,7 +15243,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="32"/>
+      <c r="J116" s="35"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -15233,7 +15260,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="32"/>
+      <c r="J117" s="35"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -15250,7 +15277,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="32"/>
+      <c r="J118" s="35"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -15267,7 +15294,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="32"/>
+      <c r="J119" s="35"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -15284,7 +15311,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="32"/>
+      <c r="J120" s="35"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -15301,7 +15328,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="32"/>
+      <c r="J121" s="35"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -15318,7 +15345,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="32"/>
+      <c r="J122" s="35"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -15335,7 +15362,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="32"/>
+      <c r="J123" s="35"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -15352,7 +15379,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="32"/>
+      <c r="J124" s="35"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -15369,7 +15396,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="32"/>
+      <c r="J125" s="35"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -15386,7 +15413,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="32"/>
+      <c r="J126" s="35"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -15403,7 +15430,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="32"/>
+      <c r="J127" s="35"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -15420,7 +15447,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="32"/>
+      <c r="J128" s="35"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -15437,7 +15464,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="32"/>
+      <c r="J129" s="35"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -15454,7 +15481,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="32"/>
+      <c r="J130" s="35"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -15471,7 +15498,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="32"/>
+      <c r="J131" s="35"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -15488,7 +15515,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="32"/>
+      <c r="J132" s="35"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -15505,7 +15532,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="32"/>
+      <c r="J133" s="35"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -15522,7 +15549,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="32"/>
+      <c r="J134" s="35"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -15539,7 +15566,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="32"/>
+      <c r="J135" s="35"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -15556,7 +15583,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="32"/>
+      <c r="J136" s="35"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -15573,7 +15600,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="32"/>
+      <c r="J137" s="35"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -15590,7 +15617,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="32"/>
+      <c r="J138" s="35"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -15607,7 +15634,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="32"/>
+      <c r="J139" s="35"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -15624,7 +15651,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="32"/>
+      <c r="J140" s="35"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -15641,7 +15668,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="32"/>
+      <c r="J141" s="35"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -15658,7 +15685,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="32"/>
+      <c r="J142" s="35"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -15675,7 +15702,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="32"/>
+      <c r="J143" s="35"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -15692,7 +15719,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="32"/>
+      <c r="J144" s="35"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -15709,7 +15736,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="32"/>
+      <c r="J145" s="35"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -15726,7 +15753,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="32"/>
+      <c r="J146" s="35"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -15743,7 +15770,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="32"/>
+      <c r="J147" s="35"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -15760,7 +15787,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="32"/>
+      <c r="J148" s="35"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -15777,7 +15804,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="32"/>
+      <c r="J149" s="35"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -15794,7 +15821,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="32"/>
+      <c r="J150" s="35"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -15811,7 +15838,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="32"/>
+      <c r="J151" s="35"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -15828,7 +15855,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="32"/>
+      <c r="J152" s="35"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -15845,7 +15872,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="32"/>
+      <c r="J153" s="35"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -15862,7 +15889,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="32"/>
+      <c r="J154" s="35"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -15879,7 +15906,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="32"/>
+      <c r="J155" s="35"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -15896,7 +15923,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="32"/>
+      <c r="J156" s="35"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -15913,7 +15940,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="32"/>
+      <c r="J157" s="35"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -15930,7 +15957,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="32"/>
+      <c r="J158" s="35"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -15947,7 +15974,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="32"/>
+      <c r="J159" s="35"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -15964,7 +15991,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="32"/>
+      <c r="J160" s="35"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -15981,7 +16008,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="32"/>
+      <c r="J161" s="35"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -15998,7 +16025,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="32"/>
+      <c r="J162" s="35"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -16015,7 +16042,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="32"/>
+      <c r="J163" s="35"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -16032,7 +16059,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="32"/>
+      <c r="J164" s="35"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -16049,7 +16076,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="32"/>
+      <c r="J165" s="35"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -16066,7 +16093,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="32"/>
+      <c r="J166" s="35"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -16083,7 +16110,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="32"/>
+      <c r="J167" s="35"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -16100,7 +16127,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="32"/>
+      <c r="J168" s="35"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -16117,7 +16144,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="32"/>
+      <c r="J169" s="35"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -16134,7 +16161,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="32"/>
+      <c r="J170" s="35"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -16151,7 +16178,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="32"/>
+      <c r="J171" s="35"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -16168,7 +16195,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="32"/>
+      <c r="J172" s="35"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -16185,7 +16212,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="32"/>
+      <c r="J173" s="35"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -16202,7 +16229,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="32"/>
+      <c r="J174" s="35"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -16219,7 +16246,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="32"/>
+      <c r="J175" s="35"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -16236,7 +16263,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="32"/>
+      <c r="J176" s="35"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -16253,7 +16280,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="32"/>
+      <c r="J177" s="35"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -16270,7 +16297,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="32"/>
+      <c r="J178" s="35"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -16287,7 +16314,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
-      <c r="J179" s="32"/>
+      <c r="J179" s="35"/>
       <c r="K179" s="21"/>
       <c r="L179" s="22"/>
       <c r="M179" s="20"/>
@@ -16304,7 +16331,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
-      <c r="J180" s="32"/>
+      <c r="J180" s="35"/>
       <c r="K180" s="21"/>
       <c r="L180" s="22"/>
       <c r="M180" s="20"/>
@@ -16321,7 +16348,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
-      <c r="J181" s="32"/>
+      <c r="J181" s="35"/>
       <c r="K181" s="21"/>
       <c r="L181" s="22"/>
       <c r="M181" s="20"/>
@@ -16338,7 +16365,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
-      <c r="J182" s="32"/>
+      <c r="J182" s="35"/>
       <c r="K182" s="21"/>
       <c r="L182" s="22"/>
       <c r="M182" s="20"/>
@@ -16355,7 +16382,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
-      <c r="J183" s="32"/>
+      <c r="J183" s="35"/>
       <c r="K183" s="21"/>
       <c r="L183" s="22"/>
       <c r="M183" s="20"/>
@@ -16372,7 +16399,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
-      <c r="J184" s="32"/>
+      <c r="J184" s="35"/>
       <c r="K184" s="21"/>
       <c r="L184" s="22"/>
       <c r="M184" s="20"/>
@@ -16389,7 +16416,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
-      <c r="J185" s="32"/>
+      <c r="J185" s="35"/>
       <c r="K185" s="21"/>
       <c r="L185" s="22"/>
       <c r="M185" s="20"/>
@@ -16406,7 +16433,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
-      <c r="J186" s="32"/>
+      <c r="J186" s="35"/>
       <c r="K186" s="21"/>
       <c r="L186" s="22"/>
       <c r="M186" s="20"/>
@@ -16423,7 +16450,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
-      <c r="J187" s="32"/>
+      <c r="J187" s="35"/>
       <c r="K187" s="21"/>
       <c r="L187" s="22"/>
       <c r="M187" s="20"/>
@@ -16440,7 +16467,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
-      <c r="J188" s="32"/>
+      <c r="J188" s="35"/>
       <c r="K188" s="21"/>
       <c r="L188" s="22"/>
       <c r="M188" s="20"/>
@@ -16457,7 +16484,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
-      <c r="J189" s="32"/>
+      <c r="J189" s="35"/>
       <c r="K189" s="21"/>
       <c r="L189" s="22"/>
       <c r="M189" s="20"/>
@@ -16474,7 +16501,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
-      <c r="J190" s="32"/>
+      <c r="J190" s="35"/>
       <c r="K190" s="21"/>
       <c r="L190" s="22"/>
       <c r="M190" s="20"/>
@@ -16491,7 +16518,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
-      <c r="J191" s="32"/>
+      <c r="J191" s="35"/>
       <c r="K191" s="21"/>
       <c r="L191" s="22"/>
       <c r="M191" s="20"/>
@@ -16508,7 +16535,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
-      <c r="J192" s="32"/>
+      <c r="J192" s="35"/>
       <c r="K192" s="21"/>
       <c r="L192" s="22"/>
       <c r="M192" s="20"/>
@@ -16525,7 +16552,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
-      <c r="J193" s="32"/>
+      <c r="J193" s="35"/>
       <c r="K193" s="21"/>
       <c r="L193" s="22"/>
       <c r="M193" s="20"/>
@@ -16542,7 +16569,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
-      <c r="J194" s="32"/>
+      <c r="J194" s="35"/>
       <c r="K194" s="21"/>
       <c r="L194" s="22"/>
       <c r="M194" s="20"/>
@@ -16559,7 +16586,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
-      <c r="J195" s="32"/>
+      <c r="J195" s="35"/>
       <c r="K195" s="21"/>
       <c r="L195" s="22"/>
       <c r="M195" s="20"/>
@@ -16576,7 +16603,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
-      <c r="J196" s="32"/>
+      <c r="J196" s="35"/>
       <c r="K196" s="21"/>
       <c r="L196" s="22"/>
       <c r="M196" s="20"/>
@@ -16593,7 +16620,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
-      <c r="J197" s="32"/>
+      <c r="J197" s="35"/>
       <c r="K197" s="21"/>
       <c r="L197" s="22"/>
       <c r="M197" s="20"/>
@@ -16610,7 +16637,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
-      <c r="J198" s="32"/>
+      <c r="J198" s="35"/>
       <c r="K198" s="21"/>
       <c r="L198" s="22"/>
       <c r="M198" s="20"/>
@@ -16627,7 +16654,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
-      <c r="J199" s="32"/>
+      <c r="J199" s="35"/>
       <c r="K199" s="21"/>
       <c r="L199" s="22"/>
       <c r="M199" s="20"/>
@@ -16644,12 +16671,29 @@
       <c r="G200" s="25"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
-      <c r="J200" s="32"/>
+      <c r="J200" s="35"/>
       <c r="K200" s="21"/>
       <c r="L200" s="22"/>
       <c r="M200" s="20"/>
       <c r="N200" s="22"/>
       <c r="O200" s="21"/>
+    </row>
+    <row r="201" ht="23" customHeight="1" spans="1:15">
+      <c r="A201" s="18"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="25"/>
+      <c r="G201" s="25"/>
+      <c r="H201" s="25"/>
+      <c r="I201" s="25"/>
+      <c r="J201" s="35"/>
+      <c r="K201" s="21"/>
+      <c r="L201" s="22"/>
+      <c r="M201" s="20"/>
+      <c r="N201" s="22"/>
+      <c r="O201" s="21"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -16659,18 +16703,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N101:N200">
+  <conditionalFormatting sqref="N102:N201">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N100">
+  <conditionalFormatting sqref="N1 N3:N101">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -16682,10 +16726,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C5:C16 C18:C200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C18 C7:C17 C19:C201">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D5:D16 D18:D200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D18 D7:D17 D19:D201">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13080" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowHeight="13080" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="724">
   <si>
     <t>target</t>
   </si>
@@ -1955,6 +1955,21 @@
     <t>deathstar$(random|numeric|101|992)</t>
   </si>
   <si>
+    <t>Content-Type</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>api-key</t>
+  </si>
+  <si>
+    <t>${sib.key}</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
@@ -1976,19 +1991,205 @@
     <t>${send.count}</t>
   </si>
   <si>
+    <t>sib.subject</t>
+  </si>
+  <si>
+    <t>Welcome to the Club #$(random|numeric|11|99)</t>
+  </si>
+  <si>
+    <t>sib.content</t>
+  </si>
+  <si>
+    <t>Welcome! Glad you've joined us!$(random|alphanumeric|256)&lt;a href=\"https://www.website.com/link?id=$(random|alphanumeric|64)\"&gt;Get Started&lt;/a&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>${sib.url}</t>
+  </si>
+  <si>
+    <t>${sib.email.template}</t>
+  </si>
+  <si>
+    <t>sib.response</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>${sib.response}.body</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>let mailinator catch up</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>mails</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>${mails}</t>
+  </si>
+  <si>
+    <t>Mailinator</t>
+  </si>
+  <si>
+    <t>we'll wait up to 5 minutes for all the mails to arrive</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>[LIST(${mails}) =&gt; size]</t>
+  </si>
+  <si>
+    <t>wait and retry...</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>retrieve mail</t>
+  </si>
+  <si>
+    <t>retrieve mail details</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>[LIST(${mails}) =&gt; item(${i})]</t>
+  </si>
+  <si>
+    <t>${mail}</t>
+  </si>
+  <si>
+    <t>assert expected value per mail</t>
+  </si>
+  <si>
+    <t>${mail}.id</t>
+  </si>
+  <si>
+    <t>${webmail.inbox}-</t>
+  </si>
+  <si>
+    <t>${mail}.subject</t>
+  </si>
+  <si>
+    <t>Welcome to the Club #</t>
+  </si>
+  <si>
+    <t>${mail}.from</t>
+  </si>
+  <si>
+    <t>${sib.sender}</t>
+  </si>
+  <si>
+    <t>${mail}.to</t>
+  </si>
+  <si>
+    <t>${webmail.inbox}@mailinator.com</t>
+  </si>
+  <si>
+    <t>${mail}.time</t>
+  </si>
+  <si>
+    <t>$(sysdate|now|yyyy-MM-dd)</t>
+  </si>
+  <si>
+    <t>${mail}.content</t>
+  </si>
+  <si>
+    <t>Welcome! Glad you've joined us!</t>
+  </si>
+  <si>
+    <t>[LIST(${mail}.links) =&gt; size]</t>
+  </si>
+  <si>
+    <t>detail mail</t>
+  </si>
+  <si>
+    <t>nexial.browser</t>
+  </si>
+  <si>
+    <t>chrome.headless</t>
+  </si>
+  <si>
+    <t>site.url</t>
+  </si>
+  <si>
+    <t>https://www.mailinator.com/</t>
+  </si>
+  <si>
+    <t>loc.nav-items</t>
+  </si>
+  <si>
+    <t>css=nav #main-menu a</t>
+  </si>
+  <si>
+    <t>loc.email-link</t>
+  </si>
+  <si>
+    <t>css=header .container a.inbox-link</t>
+  </si>
+  <si>
+    <t>expected.email-link</t>
+  </si>
+  <si>
+    <t>https://www.mailinator.com/v4/public/inboxes.jsp</t>
+  </si>
+  <si>
+    <t>Go to Site</t>
+  </si>
+  <si>
+    <t>${site.url}</t>
+  </si>
+  <si>
+    <t>${loc.nav-items}</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>${loc.email-link}</t>
+  </si>
+  <si>
+    <t>actual.email-link</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>Assert Email Link</t>
+  </si>
+  <si>
+    <t>${expected.email-link}</t>
+  </si>
+  <si>
+    <t>${actual.email-link}</t>
+  </si>
+  <si>
     <t>prepMail</t>
   </si>
   <si>
     <t>subject</t>
   </si>
   <si>
-    <t>Welcome to the Club #$(random|numeric|11|99)</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
-    <t>${webmail.inbox}@mailinator.com</t>
+    <t>${webmail2.inbox}@temporary-mail.net</t>
   </si>
   <si>
     <t>body</t>
@@ -2003,190 +2204,34 @@
     <t>MyMail</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>let mailinator catch up</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>mails</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>${mails}</t>
-  </si>
-  <si>
-    <t>Mailinator</t>
-  </si>
-  <si>
-    <t>we'll wait up to 5 minutes for all the mails to arrive</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>[LIST(${mails}) =&gt; size]</t>
-  </si>
-  <si>
-    <t>wait and retry...</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>retrieve mail</t>
-  </si>
-  <si>
-    <t>retrieve mail details</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>[LIST(${mails}) =&gt; item(${i})]</t>
-  </si>
-  <si>
-    <t>${mail}</t>
-  </si>
-  <si>
-    <t>assert expected value per mail</t>
-  </si>
-  <si>
-    <t>${mail}.id</t>
-  </si>
-  <si>
-    <t>${webmail.inbox}-</t>
-  </si>
-  <si>
-    <t>${mail}.subject</t>
-  </si>
-  <si>
-    <t>Welcome to the Club #</t>
+    <t>Temporary-mail</t>
+  </si>
+  <si>
+    <t>webmail2</t>
+  </si>
+  <si>
+    <t>PauseAfter()</t>
+  </si>
+  <si>
+    <t>assert all sent email are found</t>
+  </si>
+  <si>
+    <t>delete just 5 emails</t>
+  </si>
+  <si>
+    <t>delete.max</t>
+  </si>
+  <si>
+    <t>[LIST(${mails}) =&gt; size min(5)]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>${delete.max}</t>
   </si>
   <si>
     <t>${MyMail.username}</t>
-  </si>
-  <si>
-    <t>${mail}.from</t>
-  </si>
-  <si>
-    <t>${mail}.to</t>
-  </si>
-  <si>
-    <t>${mail}.time</t>
-  </si>
-  <si>
-    <t>$(sysdate|now|yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>${mail}.content</t>
-  </si>
-  <si>
-    <t>Welcome! Glad you've joined us!</t>
-  </si>
-  <si>
-    <t>[LIST(${mail}.links) =&gt; size]</t>
-  </si>
-  <si>
-    <t>detail mail</t>
-  </si>
-  <si>
-    <t>nexial.browser</t>
-  </si>
-  <si>
-    <t>chrome.headless</t>
-  </si>
-  <si>
-    <t>site.url</t>
-  </si>
-  <si>
-    <t>https://www.mailinator.com/</t>
-  </si>
-  <si>
-    <t>loc.nav-items</t>
-  </si>
-  <si>
-    <t>css=nav #main-menu a</t>
-  </si>
-  <si>
-    <t>loc.email-link</t>
-  </si>
-  <si>
-    <t>css=header .container a.inbox-link</t>
-  </si>
-  <si>
-    <t>expected.email-link</t>
-  </si>
-  <si>
-    <t>https://www.mailinator.com/v4/public/inboxes.jsp</t>
-  </si>
-  <si>
-    <t>Go to Site</t>
-  </si>
-  <si>
-    <t>${site.url}</t>
-  </si>
-  <si>
-    <t>${loc.nav-items}</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>${loc.email-link}</t>
-  </si>
-  <si>
-    <t>actual.email-link</t>
-  </si>
-  <si>
-    <t>href</t>
-  </si>
-  <si>
-    <t>Assert Email Link</t>
-  </si>
-  <si>
-    <t>${expected.email-link}</t>
-  </si>
-  <si>
-    <t>${actual.email-link}</t>
-  </si>
-  <si>
-    <t>webmail2</t>
-  </si>
-  <si>
-    <t>${webmail2.inbox}@temporary-mail.net</t>
-  </si>
-  <si>
-    <t>Temporary-mail</t>
-  </si>
-  <si>
-    <t>assert all sent email are found</t>
-  </si>
-  <si>
-    <t>delete just 5 emails</t>
-  </si>
-  <si>
-    <t>delete.max</t>
-  </si>
-  <si>
-    <t>[LIST(${mails}) =&gt; size min(5)]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>${delete.max}</t>
   </si>
   <si>
     <t>$(sysdate|now|yyyy-MM)</t>
@@ -2197,10 +2242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2271,6 +2316,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2287,32 +2371,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2326,7 +2410,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2334,14 +2418,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2356,60 +2447,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2442,13 +2487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,7 +2517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,13 +2553,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,37 +2631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,91 +2661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,16 +2792,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2776,6 +2821,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2790,17 +2859,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2823,36 +2883,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2864,132 +2909,132 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3067,18 +3112,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5816,12 +5849,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O207"/>
+  <dimension ref="A1:O210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -5830,10 +5863,10 @@
     <col min="2" max="2" width="25.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="48.25" style="5" customWidth="1"/>
-    <col min="5" max="6" width="34" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.25" style="5" customWidth="1"/>
-    <col min="8" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="19.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="6" customWidth="1"/>
     <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
     <col min="12" max="12" width="12" style="8" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
@@ -5864,14 +5897,14 @@
       <c r="I1" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="J1" s="47"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>611</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="48"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -5887,12 +5920,12 @@
       <c r="I2" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -5904,7 +5937,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="51"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -5939,10 +5972,10 @@
       <c r="I4" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="23" t="s">
         <v>623</v>
       </c>
@@ -5978,7 +6011,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -5989,10 +6022,10 @@
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>631</v>
@@ -6003,7 +6036,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -6012,25 +6045,23 @@
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>634</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>635</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -6039,23 +6070,23 @@
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>139</v>
+      <c r="B8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -6064,21 +6095,23 @@
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>49</v>
+      <c r="B9" s="19"/>
+      <c r="C9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="F9" s="25"/>
+        <v>636</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>637</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -6087,25 +6120,25 @@
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>81</v>
+      <c r="B10" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>382</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="G10" s="25" t="s">
         <v>640</v>
       </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
@@ -6114,77 +6147,72 @@
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>81</v>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="G11" s="25" t="s">
         <v>642</v>
       </c>
+      <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="90" spans="1:15">
+    <row r="12" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="18"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>81</v>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>386</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="G12" s="35" t="s">
         <v>644</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
       <c r="N12" s="22"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
+    <row r="13" ht="75" spans="1:15">
       <c r="A13" s="18"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>138</v>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>386</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>645</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>638</v>
+      <c r="F13" s="32" t="s">
+        <v>646</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -6193,23 +6221,25 @@
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>260</v>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>274</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="G14" s="25"/>
+        <v>648</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>649</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -6218,23 +6248,23 @@
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="18"/>
-      <c r="B15" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>648</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="G15" s="32"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -6243,27 +6273,21 @@
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>649</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="H16" s="25" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>651</v>
       </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -6272,50 +6296,48 @@
     </row>
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="E17" s="56" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="35" customHeight="1" spans="1:15">
-      <c r="A18" s="18" t="s">
+    <row r="18" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="51" t="s">
         <v>653</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="C18" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>654</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>656</v>
-      </c>
+      <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -6324,23 +6346,27 @@
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>655</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="H19" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="F19" s="56" t="s">
-        <v>637</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -6349,53 +6375,50 @@
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>659</v>
-      </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="2:15">
-      <c r="B21" s="57" t="s">
+    <row r="21" ht="35" customHeight="1" spans="1:15">
+      <c r="A21" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>660</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>649</v>
+      <c r="C21" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>661</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>651</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -6404,21 +6427,23 @@
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>426</v>
+      <c r="B22" s="54"/>
+      <c r="C22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>652</v>
-      </c>
-      <c r="F22" s="25"/>
+        <v>663</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>642</v>
+      </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -6427,50 +6452,53 @@
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>386</v>
+      <c r="D23" s="40" t="s">
+        <v>429</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>632</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="F23" s="53"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="29" t="s">
-        <v>661</v>
+    <row r="24" ht="23" customHeight="1" spans="2:15">
+      <c r="B24" s="54" t="s">
+        <v>666</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>662</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>655</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>635</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>657</v>
+      </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -6479,23 +6507,21 @@
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="18"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>657</v>
-      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -6504,25 +6530,23 @@
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="18"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>16</v>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>636</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>663</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -6531,21 +6555,25 @@
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="18"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>664</v>
-      </c>
-      <c r="F27" s="25"/>
+      <c r="D27" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>640</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -6554,25 +6582,23 @@
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
-      <c r="B28" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>666</v>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>641</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="35"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -6581,23 +6607,25 @@
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>668</v>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="F29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -6606,23 +6634,21 @@
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="18"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="34" t="s">
+      <c r="D30" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>671</v>
-      </c>
+      <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="35"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -6631,23 +6657,25 @@
     </row>
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="18"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>642</v>
+      <c r="D31" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>672</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="35"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -6656,23 +6684,23 @@
     </row>
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="18"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>673</v>
+      <c r="E32" s="31" t="s">
+        <v>674</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -6681,23 +6709,23 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="18"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>675</v>
+      <c r="D33" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>676</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -6706,23 +6734,23 @@
     </row>
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="18"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>677</v>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>678</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>632</v>
+        <v>679</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -6731,25 +6759,23 @@
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="18"/>
-      <c r="B35" s="44" t="s">
-        <v>678</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>29</v>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -6758,23 +6784,23 @@
     </row>
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="18"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>631</v>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>682</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -6783,15 +6809,23 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>637</v>
+      </c>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -6800,15 +6834,25 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="B38" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>669</v>
+      </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="35"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -6817,15 +6861,23 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>652</v>
+      </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="35"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -6842,7 +6894,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="35"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -6859,7 +6911,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -6876,7 +6928,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="32"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -6893,7 +6945,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="35"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -6910,7 +6962,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="35"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -6927,7 +6979,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -6944,7 +6996,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -6961,7 +7013,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -6978,7 +7030,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -6995,7 +7047,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="35"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -7012,7 +7064,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="35"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -7029,7 +7081,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -7046,7 +7098,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="32"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -7063,7 +7115,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="35"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -7080,7 +7132,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="35"/>
+      <c r="J54" s="32"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -7097,7 +7149,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="35"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -7114,7 +7166,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="35"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -7131,7 +7183,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -7148,7 +7200,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -7165,7 +7217,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="35"/>
+      <c r="J59" s="32"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -7182,7 +7234,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="35"/>
+      <c r="J60" s="32"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -7199,7 +7251,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="35"/>
+      <c r="J61" s="32"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -7216,7 +7268,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="35"/>
+      <c r="J62" s="32"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -7233,7 +7285,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="32"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -7250,7 +7302,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="35"/>
+      <c r="J64" s="32"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -7267,7 +7319,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="35"/>
+      <c r="J65" s="32"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -7284,7 +7336,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="32"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -7301,7 +7353,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="32"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -7318,7 +7370,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -7335,7 +7387,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="32"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -7352,7 +7404,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="32"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -7369,7 +7421,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="35"/>
+      <c r="J71" s="32"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -7386,7 +7438,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="35"/>
+      <c r="J72" s="32"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -7403,7 +7455,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="35"/>
+      <c r="J73" s="32"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -7420,7 +7472,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="35"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -7437,7 +7489,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="35"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -7454,7 +7506,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="35"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -7471,7 +7523,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="35"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -7488,7 +7540,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="35"/>
+      <c r="J78" s="32"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -7505,7 +7557,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="35"/>
+      <c r="J79" s="32"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -7522,7 +7574,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="35"/>
+      <c r="J80" s="32"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -7539,7 +7591,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="35"/>
+      <c r="J81" s="32"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -7556,7 +7608,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="35"/>
+      <c r="J82" s="32"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -7573,7 +7625,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="35"/>
+      <c r="J83" s="32"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -7590,7 +7642,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="32"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -7607,7 +7659,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="35"/>
+      <c r="J85" s="32"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -7624,7 +7676,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="35"/>
+      <c r="J86" s="32"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -7641,7 +7693,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="35"/>
+      <c r="J87" s="32"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -7658,7 +7710,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="35"/>
+      <c r="J88" s="32"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -7675,7 +7727,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="35"/>
+      <c r="J89" s="32"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -7692,7 +7744,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="35"/>
+      <c r="J90" s="32"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -7709,7 +7761,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="35"/>
+      <c r="J91" s="32"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -7726,7 +7778,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="35"/>
+      <c r="J92" s="32"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -7743,7 +7795,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="35"/>
+      <c r="J93" s="32"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -7760,7 +7812,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="35"/>
+      <c r="J94" s="32"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -7777,7 +7829,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="35"/>
+      <c r="J95" s="32"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -7794,7 +7846,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="35"/>
+      <c r="J96" s="32"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -7811,7 +7863,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="35"/>
+      <c r="J97" s="32"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -7828,7 +7880,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="35"/>
+      <c r="J98" s="32"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -7845,7 +7897,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="35"/>
+      <c r="J99" s="32"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -7862,7 +7914,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="35"/>
+      <c r="J100" s="32"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -7879,7 +7931,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="35"/>
+      <c r="J101" s="32"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -7896,7 +7948,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="35"/>
+      <c r="J102" s="32"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -7913,7 +7965,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="35"/>
+      <c r="J103" s="32"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -7930,7 +7982,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="35"/>
+      <c r="J104" s="32"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -7947,7 +7999,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="35"/>
+      <c r="J105" s="32"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -7964,7 +8016,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="35"/>
+      <c r="J106" s="32"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -7981,7 +8033,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="35"/>
+      <c r="J107" s="32"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -7998,7 +8050,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="35"/>
+      <c r="J108" s="32"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -8015,7 +8067,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="35"/>
+      <c r="J109" s="32"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -8032,7 +8084,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="35"/>
+      <c r="J110" s="32"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -8049,7 +8101,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="35"/>
+      <c r="J111" s="32"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -8066,7 +8118,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="35"/>
+      <c r="J112" s="32"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -8083,7 +8135,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="35"/>
+      <c r="J113" s="32"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -8100,7 +8152,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="35"/>
+      <c r="J114" s="32"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -8117,7 +8169,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="35"/>
+      <c r="J115" s="32"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -8134,7 +8186,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="35"/>
+      <c r="J116" s="32"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -8151,7 +8203,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="35"/>
+      <c r="J117" s="32"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -8168,7 +8220,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="35"/>
+      <c r="J118" s="32"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -8185,7 +8237,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="35"/>
+      <c r="J119" s="32"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -8202,7 +8254,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="35"/>
+      <c r="J120" s="32"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -8219,7 +8271,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="35"/>
+      <c r="J121" s="32"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -8236,7 +8288,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="35"/>
+      <c r="J122" s="32"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -8253,7 +8305,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="35"/>
+      <c r="J123" s="32"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -8270,7 +8322,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="35"/>
+      <c r="J124" s="32"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -8287,7 +8339,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="35"/>
+      <c r="J125" s="32"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -8304,7 +8356,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="35"/>
+      <c r="J126" s="32"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -8321,7 +8373,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="35"/>
+      <c r="J127" s="32"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -8338,7 +8390,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="35"/>
+      <c r="J128" s="32"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -8355,7 +8407,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="35"/>
+      <c r="J129" s="32"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -8372,7 +8424,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="35"/>
+      <c r="J130" s="32"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -8389,7 +8441,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="35"/>
+      <c r="J131" s="32"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -8406,7 +8458,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="35"/>
+      <c r="J132" s="32"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -8423,7 +8475,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="35"/>
+      <c r="J133" s="32"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -8440,7 +8492,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="35"/>
+      <c r="J134" s="32"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -8457,7 +8509,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="35"/>
+      <c r="J135" s="32"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -8474,7 +8526,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="35"/>
+      <c r="J136" s="32"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -8491,7 +8543,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="35"/>
+      <c r="J137" s="32"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -8508,7 +8560,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="35"/>
+      <c r="J138" s="32"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -8525,7 +8577,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="35"/>
+      <c r="J139" s="32"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -8542,7 +8594,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="35"/>
+      <c r="J140" s="32"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -8559,7 +8611,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="35"/>
+      <c r="J141" s="32"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -8576,7 +8628,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="35"/>
+      <c r="J142" s="32"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -8593,7 +8645,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="35"/>
+      <c r="J143" s="32"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -8610,7 +8662,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="35"/>
+      <c r="J144" s="32"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -8627,7 +8679,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="35"/>
+      <c r="J145" s="32"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -8644,7 +8696,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="35"/>
+      <c r="J146" s="32"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -8661,7 +8713,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="35"/>
+      <c r="J147" s="32"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -8678,7 +8730,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="35"/>
+      <c r="J148" s="32"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -8695,7 +8747,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="35"/>
+      <c r="J149" s="32"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -8712,7 +8764,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="35"/>
+      <c r="J150" s="32"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -8729,7 +8781,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="35"/>
+      <c r="J151" s="32"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -8746,7 +8798,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="35"/>
+      <c r="J152" s="32"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -8763,7 +8815,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="35"/>
+      <c r="J153" s="32"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -8780,7 +8832,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="35"/>
+      <c r="J154" s="32"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -8797,7 +8849,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="35"/>
+      <c r="J155" s="32"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -8814,7 +8866,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="35"/>
+      <c r="J156" s="32"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -8831,7 +8883,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="35"/>
+      <c r="J157" s="32"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -8848,7 +8900,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="35"/>
+      <c r="J158" s="32"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -8865,7 +8917,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="35"/>
+      <c r="J159" s="32"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -8882,7 +8934,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="35"/>
+      <c r="J160" s="32"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -8899,7 +8951,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="35"/>
+      <c r="J161" s="32"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -8916,7 +8968,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="35"/>
+      <c r="J162" s="32"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -8933,7 +8985,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="35"/>
+      <c r="J163" s="32"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -8950,7 +9002,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="35"/>
+      <c r="J164" s="32"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -8967,7 +9019,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="35"/>
+      <c r="J165" s="32"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -8984,7 +9036,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="35"/>
+      <c r="J166" s="32"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -9001,7 +9053,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="35"/>
+      <c r="J167" s="32"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -9018,7 +9070,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="35"/>
+      <c r="J168" s="32"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -9035,7 +9087,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="35"/>
+      <c r="J169" s="32"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -9052,7 +9104,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="35"/>
+      <c r="J170" s="32"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -9069,7 +9121,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="35"/>
+      <c r="J171" s="32"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -9086,7 +9138,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="35"/>
+      <c r="J172" s="32"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -9103,7 +9155,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="35"/>
+      <c r="J173" s="32"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -9120,7 +9172,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="35"/>
+      <c r="J174" s="32"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -9137,7 +9189,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="35"/>
+      <c r="J175" s="32"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -9154,7 +9206,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="35"/>
+      <c r="J176" s="32"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -9171,7 +9223,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="35"/>
+      <c r="J177" s="32"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -9188,7 +9240,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="35"/>
+      <c r="J178" s="32"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -9205,7 +9257,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
-      <c r="J179" s="35"/>
+      <c r="J179" s="32"/>
       <c r="K179" s="21"/>
       <c r="L179" s="22"/>
       <c r="M179" s="20"/>
@@ -9222,7 +9274,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
-      <c r="J180" s="35"/>
+      <c r="J180" s="32"/>
       <c r="K180" s="21"/>
       <c r="L180" s="22"/>
       <c r="M180" s="20"/>
@@ -9239,7 +9291,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
-      <c r="J181" s="35"/>
+      <c r="J181" s="32"/>
       <c r="K181" s="21"/>
       <c r="L181" s="22"/>
       <c r="M181" s="20"/>
@@ -9256,7 +9308,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
-      <c r="J182" s="35"/>
+      <c r="J182" s="32"/>
       <c r="K182" s="21"/>
       <c r="L182" s="22"/>
       <c r="M182" s="20"/>
@@ -9273,7 +9325,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
-      <c r="J183" s="35"/>
+      <c r="J183" s="32"/>
       <c r="K183" s="21"/>
       <c r="L183" s="22"/>
       <c r="M183" s="20"/>
@@ -9290,7 +9342,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
-      <c r="J184" s="35"/>
+      <c r="J184" s="32"/>
       <c r="K184" s="21"/>
       <c r="L184" s="22"/>
       <c r="M184" s="20"/>
@@ -9307,7 +9359,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
-      <c r="J185" s="35"/>
+      <c r="J185" s="32"/>
       <c r="K185" s="21"/>
       <c r="L185" s="22"/>
       <c r="M185" s="20"/>
@@ -9324,7 +9376,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
-      <c r="J186" s="35"/>
+      <c r="J186" s="32"/>
       <c r="K186" s="21"/>
       <c r="L186" s="22"/>
       <c r="M186" s="20"/>
@@ -9341,7 +9393,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
-      <c r="J187" s="35"/>
+      <c r="J187" s="32"/>
       <c r="K187" s="21"/>
       <c r="L187" s="22"/>
       <c r="M187" s="20"/>
@@ -9358,7 +9410,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
-      <c r="J188" s="35"/>
+      <c r="J188" s="32"/>
       <c r="K188" s="21"/>
       <c r="L188" s="22"/>
       <c r="M188" s="20"/>
@@ -9375,7 +9427,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
-      <c r="J189" s="35"/>
+      <c r="J189" s="32"/>
       <c r="K189" s="21"/>
       <c r="L189" s="22"/>
       <c r="M189" s="20"/>
@@ -9392,7 +9444,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
-      <c r="J190" s="35"/>
+      <c r="J190" s="32"/>
       <c r="K190" s="21"/>
       <c r="L190" s="22"/>
       <c r="M190" s="20"/>
@@ -9409,7 +9461,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
-      <c r="J191" s="35"/>
+      <c r="J191" s="32"/>
       <c r="K191" s="21"/>
       <c r="L191" s="22"/>
       <c r="M191" s="20"/>
@@ -9426,7 +9478,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
-      <c r="J192" s="35"/>
+      <c r="J192" s="32"/>
       <c r="K192" s="21"/>
       <c r="L192" s="22"/>
       <c r="M192" s="20"/>
@@ -9443,7 +9495,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
-      <c r="J193" s="35"/>
+      <c r="J193" s="32"/>
       <c r="K193" s="21"/>
       <c r="L193" s="22"/>
       <c r="M193" s="20"/>
@@ -9460,7 +9512,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
-      <c r="J194" s="35"/>
+      <c r="J194" s="32"/>
       <c r="K194" s="21"/>
       <c r="L194" s="22"/>
       <c r="M194" s="20"/>
@@ -9477,7 +9529,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
-      <c r="J195" s="35"/>
+      <c r="J195" s="32"/>
       <c r="K195" s="21"/>
       <c r="L195" s="22"/>
       <c r="M195" s="20"/>
@@ -9494,7 +9546,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
-      <c r="J196" s="35"/>
+      <c r="J196" s="32"/>
       <c r="K196" s="21"/>
       <c r="L196" s="22"/>
       <c r="M196" s="20"/>
@@ -9511,7 +9563,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
-      <c r="J197" s="35"/>
+      <c r="J197" s="32"/>
       <c r="K197" s="21"/>
       <c r="L197" s="22"/>
       <c r="M197" s="20"/>
@@ -9528,7 +9580,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
-      <c r="J198" s="35"/>
+      <c r="J198" s="32"/>
       <c r="K198" s="21"/>
       <c r="L198" s="22"/>
       <c r="M198" s="20"/>
@@ -9545,7 +9597,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
-      <c r="J199" s="35"/>
+      <c r="J199" s="32"/>
       <c r="K199" s="21"/>
       <c r="L199" s="22"/>
       <c r="M199" s="20"/>
@@ -9562,7 +9614,7 @@
       <c r="G200" s="25"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
-      <c r="J200" s="35"/>
+      <c r="J200" s="32"/>
       <c r="K200" s="21"/>
       <c r="L200" s="22"/>
       <c r="M200" s="20"/>
@@ -9579,7 +9631,7 @@
       <c r="G201" s="25"/>
       <c r="H201" s="25"/>
       <c r="I201" s="25"/>
-      <c r="J201" s="35"/>
+      <c r="J201" s="32"/>
       <c r="K201" s="21"/>
       <c r="L201" s="22"/>
       <c r="M201" s="20"/>
@@ -9596,7 +9648,7 @@
       <c r="G202" s="25"/>
       <c r="H202" s="25"/>
       <c r="I202" s="25"/>
-      <c r="J202" s="35"/>
+      <c r="J202" s="32"/>
       <c r="K202" s="21"/>
       <c r="L202" s="22"/>
       <c r="M202" s="20"/>
@@ -9613,7 +9665,7 @@
       <c r="G203" s="25"/>
       <c r="H203" s="25"/>
       <c r="I203" s="25"/>
-      <c r="J203" s="35"/>
+      <c r="J203" s="32"/>
       <c r="K203" s="21"/>
       <c r="L203" s="22"/>
       <c r="M203" s="20"/>
@@ -9630,7 +9682,7 @@
       <c r="G204" s="25"/>
       <c r="H204" s="25"/>
       <c r="I204" s="25"/>
-      <c r="J204" s="35"/>
+      <c r="J204" s="32"/>
       <c r="K204" s="21"/>
       <c r="L204" s="22"/>
       <c r="M204" s="20"/>
@@ -9647,7 +9699,7 @@
       <c r="G205" s="25"/>
       <c r="H205" s="25"/>
       <c r="I205" s="25"/>
-      <c r="J205" s="35"/>
+      <c r="J205" s="32"/>
       <c r="K205" s="21"/>
       <c r="L205" s="22"/>
       <c r="M205" s="20"/>
@@ -9664,7 +9716,7 @@
       <c r="G206" s="25"/>
       <c r="H206" s="25"/>
       <c r="I206" s="25"/>
-      <c r="J206" s="35"/>
+      <c r="J206" s="32"/>
       <c r="K206" s="21"/>
       <c r="L206" s="22"/>
       <c r="M206" s="20"/>
@@ -9681,12 +9733,63 @@
       <c r="G207" s="25"/>
       <c r="H207" s="25"/>
       <c r="I207" s="25"/>
-      <c r="J207" s="35"/>
+      <c r="J207" s="32"/>
       <c r="K207" s="21"/>
       <c r="L207" s="22"/>
       <c r="M207" s="20"/>
       <c r="N207" s="22"/>
       <c r="O207" s="21"/>
+    </row>
+    <row r="208" ht="23" customHeight="1" spans="1:15">
+      <c r="A208" s="18"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="32"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="22"/>
+      <c r="M208" s="20"/>
+      <c r="N208" s="22"/>
+      <c r="O208" s="21"/>
+    </row>
+    <row r="209" ht="23" customHeight="1" spans="1:15">
+      <c r="A209" s="18"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="25"/>
+      <c r="E209" s="25"/>
+      <c r="F209" s="25"/>
+      <c r="G209" s="25"/>
+      <c r="H209" s="25"/>
+      <c r="I209" s="25"/>
+      <c r="J209" s="32"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="22"/>
+      <c r="M209" s="20"/>
+      <c r="N209" s="22"/>
+      <c r="O209" s="21"/>
+    </row>
+    <row r="210" ht="23" customHeight="1" spans="1:15">
+      <c r="A210" s="18"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="25"/>
+      <c r="I210" s="25"/>
+      <c r="J210" s="32"/>
+      <c r="K210" s="21"/>
+      <c r="L210" s="22"/>
+      <c r="M210" s="20"/>
+      <c r="N210" s="22"/>
+      <c r="O210" s="21"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9696,18 +9799,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N108:N207">
+  <conditionalFormatting sqref="N111:N210">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N108,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N111,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N108,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N111,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N108,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N111,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N107">
+  <conditionalFormatting sqref="N1 N3:N110">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -9719,17 +9822,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C18 C19 C20 C27 C34 C5:C14 C16:C17 C21:C22 C23:C26 C28:C33 C35:C207">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C18 C21 C22 C23 C30 C37 C6:C8 C9:C17 C19:C20 C24:C25 C26:C29 C31:C36 C38:C210">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D18 D19 D20 D27 D34 D5:D14 D16:D17 D21:D22 D23:D26 D28:D33 D35:D207">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D18 D21 D22 D23 D30 D37 D6:D8 D9:D17 D19:D20 D24:D25 D26:D29 D31:D36 D38:D210">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C26 C21" listDataValidation="1"/>
+    <ignoredError sqref="C29 C24" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9742,7 +9845,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -9784,14 +9887,14 @@
       <c r="I1" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="J1" s="47"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>611</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="48"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -9807,12 +9910,12 @@
       <c r="I2" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -9824,7 +9927,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="51"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -9859,10 +9962,10 @@
       <c r="I4" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="23" t="s">
         <v>623</v>
       </c>
@@ -9888,15 +9991,15 @@
         <v>386</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -9913,15 +10016,15 @@
         <v>386</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -9938,15 +10041,15 @@
         <v>386</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -9963,15 +10066,15 @@
         <v>386</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -9988,15 +10091,15 @@
         <v>386</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -10005,7 +10108,7 @@
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
@@ -10015,13 +10118,13 @@
         <v>502</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
@@ -10038,15 +10141,15 @@
         <v>604</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
@@ -10063,15 +10166,15 @@
         <v>604</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
@@ -10088,17 +10191,17 @@
         <v>524</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -10107,7 +10210,7 @@
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="24" t="s">
@@ -10117,15 +10220,15 @@
         <v>44</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -10146,7 +10249,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -10163,7 +10266,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -10180,7 +10283,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -10197,7 +10300,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -10214,7 +10317,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -10231,7 +10334,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -10248,7 +10351,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -10265,7 +10368,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -10282,7 +10385,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
@@ -10299,7 +10402,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -10316,7 +10419,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -10333,7 +10436,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -10350,7 +10453,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -10367,7 +10470,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="35"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -10384,7 +10487,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -10401,7 +10504,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="35"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -10418,7 +10521,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="35"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -10435,7 +10538,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -10452,7 +10555,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -10469,7 +10572,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -10486,7 +10589,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -10503,7 +10606,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -10520,7 +10623,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -10537,7 +10640,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="35"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -10554,7 +10657,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="35"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -10571,7 +10674,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="35"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -10588,7 +10691,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -10605,7 +10708,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="32"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -10622,7 +10725,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="35"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -10639,7 +10742,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="35"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -10656,7 +10759,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -10673,7 +10776,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -10690,7 +10793,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -10707,7 +10810,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -10724,7 +10827,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="35"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -10741,7 +10844,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="35"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -10758,7 +10861,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -10775,7 +10878,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="32"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -10792,7 +10895,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="35"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -10809,7 +10912,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="35"/>
+      <c r="J54" s="32"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -10826,7 +10929,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="35"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -10843,7 +10946,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="35"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -10860,7 +10963,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -10877,7 +10980,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -10894,7 +10997,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="35"/>
+      <c r="J59" s="32"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -10911,7 +11014,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="35"/>
+      <c r="J60" s="32"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -10928,7 +11031,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="35"/>
+      <c r="J61" s="32"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -10945,7 +11048,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="35"/>
+      <c r="J62" s="32"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -10962,7 +11065,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="32"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -10979,7 +11082,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="35"/>
+      <c r="J64" s="32"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -10996,7 +11099,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="35"/>
+      <c r="J65" s="32"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -11013,7 +11116,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="32"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -11030,7 +11133,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="32"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -11047,7 +11150,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -11064,7 +11167,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="32"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -11081,7 +11184,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="32"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -11098,7 +11201,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="35"/>
+      <c r="J71" s="32"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -11115,7 +11218,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="35"/>
+      <c r="J72" s="32"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -11132,7 +11235,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="35"/>
+      <c r="J73" s="32"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -11149,7 +11252,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="35"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -11166,7 +11269,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="35"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -11183,7 +11286,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="35"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -11200,7 +11303,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="35"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -11217,7 +11320,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="35"/>
+      <c r="J78" s="32"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -11234,7 +11337,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="35"/>
+      <c r="J79" s="32"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -11251,7 +11354,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="35"/>
+      <c r="J80" s="32"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -11268,7 +11371,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="35"/>
+      <c r="J81" s="32"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -11285,7 +11388,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="35"/>
+      <c r="J82" s="32"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -11302,7 +11405,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="35"/>
+      <c r="J83" s="32"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -11319,7 +11422,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="32"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -11336,7 +11439,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="35"/>
+      <c r="J85" s="32"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -11353,7 +11456,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="35"/>
+      <c r="J86" s="32"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -11370,7 +11473,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="35"/>
+      <c r="J87" s="32"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -11387,7 +11490,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="35"/>
+      <c r="J88" s="32"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -11404,7 +11507,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="35"/>
+      <c r="J89" s="32"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -11421,7 +11524,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="35"/>
+      <c r="J90" s="32"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -11438,7 +11541,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="35"/>
+      <c r="J91" s="32"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -11455,7 +11558,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="35"/>
+      <c r="J92" s="32"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -11472,7 +11575,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="35"/>
+      <c r="J93" s="32"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -11489,7 +11592,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="35"/>
+      <c r="J94" s="32"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -11506,7 +11609,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="35"/>
+      <c r="J95" s="32"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -11523,7 +11626,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="35"/>
+      <c r="J96" s="32"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -11540,7 +11643,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="35"/>
+      <c r="J97" s="32"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -11557,7 +11660,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="35"/>
+      <c r="J98" s="32"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -11574,7 +11677,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="35"/>
+      <c r="J99" s="32"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -11591,7 +11694,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="35"/>
+      <c r="J100" s="32"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -11608,7 +11711,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="35"/>
+      <c r="J101" s="32"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -11625,7 +11728,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="35"/>
+      <c r="J102" s="32"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -11642,7 +11745,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="35"/>
+      <c r="J103" s="32"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -11659,7 +11762,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="35"/>
+      <c r="J104" s="32"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -11676,7 +11779,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="35"/>
+      <c r="J105" s="32"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -11693,7 +11796,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="35"/>
+      <c r="J106" s="32"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -11710,7 +11813,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="35"/>
+      <c r="J107" s="32"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -11727,7 +11830,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="35"/>
+      <c r="J108" s="32"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -11744,7 +11847,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="35"/>
+      <c r="J109" s="32"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -11761,7 +11864,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="35"/>
+      <c r="J110" s="32"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -11778,7 +11881,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="35"/>
+      <c r="J111" s="32"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -11795,7 +11898,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="35"/>
+      <c r="J112" s="32"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -11812,7 +11915,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="35"/>
+      <c r="J113" s="32"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -11829,7 +11932,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="35"/>
+      <c r="J114" s="32"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -11846,7 +11949,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="35"/>
+      <c r="J115" s="32"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -11863,7 +11966,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="35"/>
+      <c r="J116" s="32"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -11880,7 +11983,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="35"/>
+      <c r="J117" s="32"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -11897,7 +12000,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="35"/>
+      <c r="J118" s="32"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -11914,7 +12017,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="35"/>
+      <c r="J119" s="32"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -11931,7 +12034,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="35"/>
+      <c r="J120" s="32"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -11948,7 +12051,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="35"/>
+      <c r="J121" s="32"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -11965,7 +12068,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="35"/>
+      <c r="J122" s="32"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -11982,7 +12085,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="35"/>
+      <c r="J123" s="32"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -11999,7 +12102,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="35"/>
+      <c r="J124" s="32"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -12016,7 +12119,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="35"/>
+      <c r="J125" s="32"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -12033,7 +12136,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="35"/>
+      <c r="J126" s="32"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -12050,7 +12153,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="35"/>
+      <c r="J127" s="32"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -12067,7 +12170,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="35"/>
+      <c r="J128" s="32"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -12084,7 +12187,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="35"/>
+      <c r="J129" s="32"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -12101,7 +12204,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="35"/>
+      <c r="J130" s="32"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -12118,7 +12221,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="35"/>
+      <c r="J131" s="32"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -12135,7 +12238,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="35"/>
+      <c r="J132" s="32"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -12152,7 +12255,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="35"/>
+      <c r="J133" s="32"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -12169,7 +12272,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="35"/>
+      <c r="J134" s="32"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -12186,7 +12289,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="35"/>
+      <c r="J135" s="32"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -12203,7 +12306,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="35"/>
+      <c r="J136" s="32"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -12220,7 +12323,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="35"/>
+      <c r="J137" s="32"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -12237,7 +12340,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="35"/>
+      <c r="J138" s="32"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -12254,7 +12357,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="35"/>
+      <c r="J139" s="32"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -12271,7 +12374,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="35"/>
+      <c r="J140" s="32"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -12288,7 +12391,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="35"/>
+      <c r="J141" s="32"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -12305,7 +12408,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="35"/>
+      <c r="J142" s="32"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -12322,7 +12425,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="35"/>
+      <c r="J143" s="32"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -12339,7 +12442,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="35"/>
+      <c r="J144" s="32"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -12356,7 +12459,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="35"/>
+      <c r="J145" s="32"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -12373,7 +12476,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="35"/>
+      <c r="J146" s="32"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -12390,7 +12493,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="35"/>
+      <c r="J147" s="32"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -12407,7 +12510,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="35"/>
+      <c r="J148" s="32"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -12424,7 +12527,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="35"/>
+      <c r="J149" s="32"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -12441,7 +12544,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="35"/>
+      <c r="J150" s="32"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -12458,7 +12561,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="35"/>
+      <c r="J151" s="32"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -12475,7 +12578,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="35"/>
+      <c r="J152" s="32"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -12492,7 +12595,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="35"/>
+      <c r="J153" s="32"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -12509,7 +12612,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="35"/>
+      <c r="J154" s="32"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -12526,7 +12629,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="35"/>
+      <c r="J155" s="32"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -12543,7 +12646,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="35"/>
+      <c r="J156" s="32"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -12560,7 +12663,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="35"/>
+      <c r="J157" s="32"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -12577,7 +12680,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="35"/>
+      <c r="J158" s="32"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -12594,7 +12697,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="35"/>
+      <c r="J159" s="32"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -12611,7 +12714,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="35"/>
+      <c r="J160" s="32"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -12628,7 +12731,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="35"/>
+      <c r="J161" s="32"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -12645,7 +12748,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="35"/>
+      <c r="J162" s="32"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -12662,7 +12765,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="35"/>
+      <c r="J163" s="32"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -12679,7 +12782,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="35"/>
+      <c r="J164" s="32"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -12696,7 +12799,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="35"/>
+      <c r="J165" s="32"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -12713,7 +12816,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="35"/>
+      <c r="J166" s="32"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -12730,7 +12833,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="35"/>
+      <c r="J167" s="32"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -12747,7 +12850,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="35"/>
+      <c r="J168" s="32"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -12764,7 +12867,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="35"/>
+      <c r="J169" s="32"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -12781,7 +12884,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="35"/>
+      <c r="J170" s="32"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -12798,7 +12901,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="35"/>
+      <c r="J171" s="32"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -12815,7 +12918,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="35"/>
+      <c r="J172" s="32"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -12832,7 +12935,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="35"/>
+      <c r="J173" s="32"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -12849,7 +12952,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="35"/>
+      <c r="J174" s="32"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -12866,7 +12969,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="35"/>
+      <c r="J175" s="32"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -12883,7 +12986,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="35"/>
+      <c r="J176" s="32"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -12900,7 +13003,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="35"/>
+      <c r="J177" s="32"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -12917,7 +13020,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="35"/>
+      <c r="J178" s="32"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -12970,12 +13073,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -12985,7 +13088,7 @@
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="48.25" style="5" customWidth="1"/>
     <col min="5" max="6" width="37.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="42.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="5" customWidth="1"/>
     <col min="8" max="9" width="18.125" style="5" customWidth="1"/>
     <col min="10" max="10" width="18.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
@@ -13018,14 +13121,14 @@
       <c r="I1" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="J1" s="47"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>611</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="48"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -13041,12 +13144,12 @@
       <c r="I2" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -13058,7 +13161,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="51"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -13093,10 +13196,10 @@
       <c r="I4" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="23" t="s">
         <v>623</v>
       </c>
@@ -13122,15 +13225,15 @@
         <v>386</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -13139,27 +13242,25 @@
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="18"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>638</v>
+      </c>
       <c r="C6" s="27" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>123</v>
+        <v>382</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>632</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -13168,25 +13269,23 @@
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
-      <c r="B7" s="29" t="s">
-        <v>633</v>
-      </c>
+      <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -13195,23 +13294,21 @@
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>139</v>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>636</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -13220,21 +13317,25 @@
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>49</v>
+      <c r="D9" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+        <v>706</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>644</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -13243,79 +13344,77 @@
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>639</v>
+        <v>708</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
+    <row r="11" ht="90" spans="1:15">
       <c r="A11" s="18"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>700</v>
+        <v>710</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>711</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="90" spans="1:15">
+    <row r="12" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="18"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>81</v>
+      <c r="D12" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>644</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
@@ -13324,23 +13423,23 @@
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>138</v>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>260</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -13348,24 +13447,32 @@
       <c r="O13" s="21"/>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>260</v>
+      <c r="A14" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+        <v>655</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>657</v>
+      </c>
       <c r="I14" s="25"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -13373,32 +13480,24 @@
       <c r="O14" s="21"/>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>660</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>123</v>
+        <v>426</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>699</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>651</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="32" t="s">
+        <v>715</v>
+      </c>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -13407,21 +13506,25 @@
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>426</v>
+      <c r="B16" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>652</v>
-      </c>
-      <c r="F16" s="25"/>
+        <v>663</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -13431,24 +13534,24 @@
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>139</v>
+        <v>717</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -13457,9 +13560,7 @@
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
-        <v>703</v>
-      </c>
+      <c r="B18" s="19"/>
       <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
@@ -13467,15 +13568,15 @@
         <v>386</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -13484,23 +13585,25 @@
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>631</v>
+      <c r="D19" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>720</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -13509,25 +13612,23 @@
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
-      <c r="B20" s="29" t="s">
-        <v>661</v>
-      </c>
+      <c r="B20" s="29"/>
       <c r="C20" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>382</v>
+        <v>17</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>706</v>
+        <v>641</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -13536,23 +13637,25 @@
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="18"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="G21" s="25"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>669</v>
+      </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -13561,25 +13664,23 @@
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>699</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>663</v>
-      </c>
+      <c r="B22" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -13588,23 +13689,23 @@
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
-      <c r="B23" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="C23" s="33" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>666</v>
-      </c>
-      <c r="F23" s="25"/>
+      <c r="D23" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>675</v>
+      </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
@@ -13613,23 +13714,23 @@
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="18"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>668</v>
+      <c r="D24" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>722</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -13638,23 +13739,23 @@
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="18"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>670</v>
+      <c r="E25" s="31" t="s">
+        <v>709</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -13663,23 +13764,23 @@
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="18"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>700</v>
+      <c r="D26" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>672</v>
+        <v>723</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -13688,23 +13789,23 @@
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="18"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>673</v>
+      <c r="E27" s="31" t="s">
+        <v>682</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -13713,23 +13814,25 @@
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>675</v>
+      <c r="B28" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>714</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="35"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -13738,25 +13841,23 @@
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
-      <c r="B29" s="44" t="s">
-        <v>678</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>29</v>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>699</v>
+        <v>260</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>636</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -13765,23 +13866,15 @@
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="18"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>646</v>
-      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="35"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -13798,7 +13891,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="35"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -13815,7 +13908,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -13832,7 +13925,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -13849,7 +13942,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -13866,7 +13959,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -13883,7 +13976,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -13900,7 +13993,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -13917,7 +14010,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="35"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -13934,7 +14027,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="35"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -13951,7 +14044,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="35"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -13968,7 +14061,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -13985,7 +14078,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="32"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -14002,7 +14095,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="35"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -14019,7 +14112,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="35"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -14036,7 +14129,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -14053,7 +14146,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -14070,7 +14163,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -14087,7 +14180,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -14104,7 +14197,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="35"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -14121,7 +14214,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="35"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -14138,7 +14231,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -14155,7 +14248,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="32"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -14172,7 +14265,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="35"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -14189,7 +14282,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="35"/>
+      <c r="J54" s="32"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -14206,7 +14299,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="35"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -14223,7 +14316,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="35"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -14240,7 +14333,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -14257,7 +14350,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -14274,7 +14367,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="35"/>
+      <c r="J59" s="32"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -14291,7 +14384,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="35"/>
+      <c r="J60" s="32"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -14308,7 +14401,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="35"/>
+      <c r="J61" s="32"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -14325,7 +14418,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="35"/>
+      <c r="J62" s="32"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -14342,7 +14435,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="32"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -14359,7 +14452,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="35"/>
+      <c r="J64" s="32"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -14376,7 +14469,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="35"/>
+      <c r="J65" s="32"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -14393,7 +14486,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="32"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -14410,7 +14503,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="32"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -14427,7 +14520,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -14444,7 +14537,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="32"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -14461,7 +14554,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="32"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -14478,7 +14571,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="35"/>
+      <c r="J71" s="32"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -14495,7 +14588,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="35"/>
+      <c r="J72" s="32"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -14512,7 +14605,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="35"/>
+      <c r="J73" s="32"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -14529,7 +14622,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="35"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -14546,7 +14639,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="35"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -14563,7 +14656,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="35"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -14580,7 +14673,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="35"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -14597,7 +14690,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="35"/>
+      <c r="J78" s="32"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -14614,7 +14707,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="35"/>
+      <c r="J79" s="32"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -14631,7 +14724,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="35"/>
+      <c r="J80" s="32"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -14648,7 +14741,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="35"/>
+      <c r="J81" s="32"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -14665,7 +14758,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="35"/>
+      <c r="J82" s="32"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -14682,7 +14775,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="35"/>
+      <c r="J83" s="32"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -14699,7 +14792,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="32"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -14716,7 +14809,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="35"/>
+      <c r="J85" s="32"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -14733,7 +14826,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="35"/>
+      <c r="J86" s="32"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -14750,7 +14843,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="35"/>
+      <c r="J87" s="32"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -14767,7 +14860,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="35"/>
+      <c r="J88" s="32"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -14784,7 +14877,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="35"/>
+      <c r="J89" s="32"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -14801,7 +14894,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="35"/>
+      <c r="J90" s="32"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -14818,7 +14911,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="35"/>
+      <c r="J91" s="32"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -14835,7 +14928,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="35"/>
+      <c r="J92" s="32"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -14852,7 +14945,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="35"/>
+      <c r="J93" s="32"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -14869,7 +14962,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="35"/>
+      <c r="J94" s="32"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -14886,7 +14979,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="35"/>
+      <c r="J95" s="32"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -14903,7 +14996,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="35"/>
+      <c r="J96" s="32"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -14920,7 +15013,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="35"/>
+      <c r="J97" s="32"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -14937,7 +15030,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="35"/>
+      <c r="J98" s="32"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -14954,7 +15047,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="35"/>
+      <c r="J99" s="32"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -14971,7 +15064,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="35"/>
+      <c r="J100" s="32"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -14988,7 +15081,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="35"/>
+      <c r="J101" s="32"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -15005,7 +15098,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="35"/>
+      <c r="J102" s="32"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -15022,7 +15115,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="35"/>
+      <c r="J103" s="32"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -15039,7 +15132,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="35"/>
+      <c r="J104" s="32"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -15056,7 +15149,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="35"/>
+      <c r="J105" s="32"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -15073,7 +15166,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="35"/>
+      <c r="J106" s="32"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -15090,7 +15183,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="35"/>
+      <c r="J107" s="32"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -15107,7 +15200,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="35"/>
+      <c r="J108" s="32"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -15124,7 +15217,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="35"/>
+      <c r="J109" s="32"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -15141,7 +15234,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="35"/>
+      <c r="J110" s="32"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -15158,7 +15251,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="35"/>
+      <c r="J111" s="32"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -15175,7 +15268,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="35"/>
+      <c r="J112" s="32"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -15192,7 +15285,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="35"/>
+      <c r="J113" s="32"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -15209,7 +15302,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="35"/>
+      <c r="J114" s="32"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -15226,7 +15319,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="35"/>
+      <c r="J115" s="32"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -15243,7 +15336,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="35"/>
+      <c r="J116" s="32"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -15260,7 +15353,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="35"/>
+      <c r="J117" s="32"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -15277,7 +15370,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="35"/>
+      <c r="J118" s="32"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -15294,7 +15387,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="35"/>
+      <c r="J119" s="32"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -15311,7 +15404,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="35"/>
+      <c r="J120" s="32"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -15328,7 +15421,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="35"/>
+      <c r="J121" s="32"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -15345,7 +15438,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="35"/>
+      <c r="J122" s="32"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -15362,7 +15455,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="35"/>
+      <c r="J123" s="32"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -15379,7 +15472,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="35"/>
+      <c r="J124" s="32"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -15396,7 +15489,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="35"/>
+      <c r="J125" s="32"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -15413,7 +15506,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="35"/>
+      <c r="J126" s="32"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -15430,7 +15523,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="35"/>
+      <c r="J127" s="32"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -15447,7 +15540,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="35"/>
+      <c r="J128" s="32"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -15464,7 +15557,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="35"/>
+      <c r="J129" s="32"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -15481,7 +15574,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="35"/>
+      <c r="J130" s="32"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -15498,7 +15591,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="35"/>
+      <c r="J131" s="32"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -15515,7 +15608,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="35"/>
+      <c r="J132" s="32"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -15532,7 +15625,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="35"/>
+      <c r="J133" s="32"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -15549,7 +15642,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="35"/>
+      <c r="J134" s="32"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -15566,7 +15659,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="35"/>
+      <c r="J135" s="32"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -15583,7 +15676,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="35"/>
+      <c r="J136" s="32"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -15600,7 +15693,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="35"/>
+      <c r="J137" s="32"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -15617,7 +15710,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="35"/>
+      <c r="J138" s="32"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -15634,7 +15727,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="35"/>
+      <c r="J139" s="32"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -15651,7 +15744,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="35"/>
+      <c r="J140" s="32"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -15668,7 +15761,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="35"/>
+      <c r="J141" s="32"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -15685,7 +15778,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="35"/>
+      <c r="J142" s="32"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -15702,7 +15795,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="35"/>
+      <c r="J143" s="32"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -15719,7 +15812,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="35"/>
+      <c r="J144" s="32"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -15736,7 +15829,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="35"/>
+      <c r="J145" s="32"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -15753,7 +15846,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="35"/>
+      <c r="J146" s="32"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -15770,7 +15863,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="35"/>
+      <c r="J147" s="32"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -15787,7 +15880,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="35"/>
+      <c r="J148" s="32"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -15804,7 +15897,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="35"/>
+      <c r="J149" s="32"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -15821,7 +15914,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="35"/>
+      <c r="J150" s="32"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -15838,7 +15931,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="35"/>
+      <c r="J151" s="32"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -15855,7 +15948,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="35"/>
+      <c r="J152" s="32"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -15872,7 +15965,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="35"/>
+      <c r="J153" s="32"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -15889,7 +15982,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="35"/>
+      <c r="J154" s="32"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -15906,7 +15999,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="35"/>
+      <c r="J155" s="32"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -15923,7 +16016,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="35"/>
+      <c r="J156" s="32"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -15940,7 +16033,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="35"/>
+      <c r="J157" s="32"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -15957,7 +16050,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="35"/>
+      <c r="J158" s="32"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -15974,7 +16067,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="35"/>
+      <c r="J159" s="32"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -15991,7 +16084,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="35"/>
+      <c r="J160" s="32"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -16008,7 +16101,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="35"/>
+      <c r="J161" s="32"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -16025,7 +16118,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="35"/>
+      <c r="J162" s="32"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -16042,7 +16135,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="35"/>
+      <c r="J163" s="32"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -16059,7 +16152,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="35"/>
+      <c r="J164" s="32"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -16076,7 +16169,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="35"/>
+      <c r="J165" s="32"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -16093,7 +16186,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="35"/>
+      <c r="J166" s="32"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -16110,7 +16203,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="35"/>
+      <c r="J167" s="32"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -16127,7 +16220,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="35"/>
+      <c r="J168" s="32"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -16144,7 +16237,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="35"/>
+      <c r="J169" s="32"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -16161,7 +16254,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="35"/>
+      <c r="J170" s="32"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -16178,7 +16271,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="35"/>
+      <c r="J171" s="32"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -16195,7 +16288,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="35"/>
+      <c r="J172" s="32"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -16212,7 +16305,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="35"/>
+      <c r="J173" s="32"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -16229,7 +16322,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="35"/>
+      <c r="J174" s="32"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -16246,7 +16339,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="35"/>
+      <c r="J175" s="32"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -16263,7 +16356,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="35"/>
+      <c r="J176" s="32"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -16280,7 +16373,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="35"/>
+      <c r="J177" s="32"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -16297,7 +16390,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="35"/>
+      <c r="J178" s="32"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -16314,7 +16407,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
-      <c r="J179" s="35"/>
+      <c r="J179" s="32"/>
       <c r="K179" s="21"/>
       <c r="L179" s="22"/>
       <c r="M179" s="20"/>
@@ -16331,7 +16424,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
-      <c r="J180" s="35"/>
+      <c r="J180" s="32"/>
       <c r="K180" s="21"/>
       <c r="L180" s="22"/>
       <c r="M180" s="20"/>
@@ -16348,7 +16441,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
-      <c r="J181" s="35"/>
+      <c r="J181" s="32"/>
       <c r="K181" s="21"/>
       <c r="L181" s="22"/>
       <c r="M181" s="20"/>
@@ -16365,7 +16458,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
-      <c r="J182" s="35"/>
+      <c r="J182" s="32"/>
       <c r="K182" s="21"/>
       <c r="L182" s="22"/>
       <c r="M182" s="20"/>
@@ -16382,7 +16475,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
-      <c r="J183" s="35"/>
+      <c r="J183" s="32"/>
       <c r="K183" s="21"/>
       <c r="L183" s="22"/>
       <c r="M183" s="20"/>
@@ -16399,7 +16492,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
-      <c r="J184" s="35"/>
+      <c r="J184" s="32"/>
       <c r="K184" s="21"/>
       <c r="L184" s="22"/>
       <c r="M184" s="20"/>
@@ -16416,7 +16509,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
-      <c r="J185" s="35"/>
+      <c r="J185" s="32"/>
       <c r="K185" s="21"/>
       <c r="L185" s="22"/>
       <c r="M185" s="20"/>
@@ -16433,7 +16526,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
-      <c r="J186" s="35"/>
+      <c r="J186" s="32"/>
       <c r="K186" s="21"/>
       <c r="L186" s="22"/>
       <c r="M186" s="20"/>
@@ -16450,7 +16543,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
-      <c r="J187" s="35"/>
+      <c r="J187" s="32"/>
       <c r="K187" s="21"/>
       <c r="L187" s="22"/>
       <c r="M187" s="20"/>
@@ -16467,7 +16560,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
-      <c r="J188" s="35"/>
+      <c r="J188" s="32"/>
       <c r="K188" s="21"/>
       <c r="L188" s="22"/>
       <c r="M188" s="20"/>
@@ -16484,7 +16577,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
-      <c r="J189" s="35"/>
+      <c r="J189" s="32"/>
       <c r="K189" s="21"/>
       <c r="L189" s="22"/>
       <c r="M189" s="20"/>
@@ -16501,7 +16594,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
-      <c r="J190" s="35"/>
+      <c r="J190" s="32"/>
       <c r="K190" s="21"/>
       <c r="L190" s="22"/>
       <c r="M190" s="20"/>
@@ -16518,7 +16611,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
-      <c r="J191" s="35"/>
+      <c r="J191" s="32"/>
       <c r="K191" s="21"/>
       <c r="L191" s="22"/>
       <c r="M191" s="20"/>
@@ -16535,7 +16628,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
-      <c r="J192" s="35"/>
+      <c r="J192" s="32"/>
       <c r="K192" s="21"/>
       <c r="L192" s="22"/>
       <c r="M192" s="20"/>
@@ -16552,7 +16645,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
-      <c r="J193" s="35"/>
+      <c r="J193" s="32"/>
       <c r="K193" s="21"/>
       <c r="L193" s="22"/>
       <c r="M193" s="20"/>
@@ -16569,7 +16662,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
-      <c r="J194" s="35"/>
+      <c r="J194" s="32"/>
       <c r="K194" s="21"/>
       <c r="L194" s="22"/>
       <c r="M194" s="20"/>
@@ -16586,7 +16679,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
-      <c r="J195" s="35"/>
+      <c r="J195" s="32"/>
       <c r="K195" s="21"/>
       <c r="L195" s="22"/>
       <c r="M195" s="20"/>
@@ -16603,7 +16696,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
-      <c r="J196" s="35"/>
+      <c r="J196" s="32"/>
       <c r="K196" s="21"/>
       <c r="L196" s="22"/>
       <c r="M196" s="20"/>
@@ -16620,7 +16713,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
-      <c r="J197" s="35"/>
+      <c r="J197" s="32"/>
       <c r="K197" s="21"/>
       <c r="L197" s="22"/>
       <c r="M197" s="20"/>
@@ -16637,7 +16730,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
-      <c r="J198" s="35"/>
+      <c r="J198" s="32"/>
       <c r="K198" s="21"/>
       <c r="L198" s="22"/>
       <c r="M198" s="20"/>
@@ -16654,7 +16747,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
-      <c r="J199" s="35"/>
+      <c r="J199" s="32"/>
       <c r="K199" s="21"/>
       <c r="L199" s="22"/>
       <c r="M199" s="20"/>
@@ -16671,29 +16764,12 @@
       <c r="G200" s="25"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
-      <c r="J200" s="35"/>
+      <c r="J200" s="32"/>
       <c r="K200" s="21"/>
       <c r="L200" s="22"/>
       <c r="M200" s="20"/>
       <c r="N200" s="22"/>
       <c r="O200" s="21"/>
-    </row>
-    <row r="201" ht="23" customHeight="1" spans="1:15">
-      <c r="A201" s="18"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="25"/>
-      <c r="H201" s="25"/>
-      <c r="I201" s="25"/>
-      <c r="J201" s="35"/>
-      <c r="K201" s="21"/>
-      <c r="L201" s="22"/>
-      <c r="M201" s="20"/>
-      <c r="N201" s="22"/>
-      <c r="O201" s="21"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -16703,18 +16779,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N102:N201">
+  <conditionalFormatting sqref="N101:N200">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N101">
+  <conditionalFormatting sqref="N1 N3:N100">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -16726,10 +16802,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C18 C7:C17 C19:C201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C17 C6:C16 C18:C200">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D18 D7:D17 D19:D201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D17 D6:D16 D18:D200">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_webmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13080" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="24780" windowHeight="12945" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2242,10 +2242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2316,38 +2316,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2364,14 +2332,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2386,14 +2361,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2408,24 +2383,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2439,6 +2407,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2446,8 +2430,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2455,6 +2447,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2487,7 +2487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2499,7 +2523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,7 +2547,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2523,61 +2625,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2589,79 +2661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2791,21 +2791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2836,35 +2821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2888,10 +2844,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2909,128 +2909,128 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9832,7 +9832,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C29 C24" listDataValidation="1"/>
+    <ignoredError sqref="C24 C29" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13075,10 +13075,10 @@
   <sheetPr/>
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -13369,7 +13369,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="90" spans="1:15">
+    <row r="11" ht="105" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
